--- a/data.xlsx
+++ b/data.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEMResearch\OneDrive\stem\training\cemre\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="staff" sheetId="1" r:id="rId2"/>
-    <sheet name="variables" sheetId="2" r:id="rId4"/>
-    <sheet name="clean_values" sheetId="3" r:id="rId5"/>
-    <sheet name="health" sheetId="4" r:id="rId6"/>
+    <sheet name="staff" sheetId="1" r:id="rId1"/>
+    <sheet name="variables" sheetId="2" r:id="rId2"/>
+    <sheet name="clean_values" sheetId="3" r:id="rId3"/>
+    <sheet name="health" sheetId="4" r:id="rId4"/>
+    <sheet name="dates" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="217">
   <si>
     <t>Employment ID</t>
   </si>
@@ -591,9 +598,6 @@
     <t>Microsoft Azure</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>correct_value</t>
   </si>
   <si>
@@ -661,13 +665,22 @@
   </si>
   <si>
     <t>hemoglobin</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -681,7 +694,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -693,21 +713,296 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +1070,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -827,19 +1122,17 @@
       <c r="Q2" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2" s="0">
+      <c r="T2">
         <v>2</v>
       </c>
       <c r="U2" t="s">
         <v>152</v>
       </c>
-      <c r="V2" s="0"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -891,21 +1184,20 @@
       <c r="Q3" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="0">
+      <c r="R3">
         <v>22</v>
       </c>
-      <c r="S3" s="0">
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3" s="0"/>
       <c r="U3" t="s">
         <v>153</v>
       </c>
-      <c r="V3" s="0">
+      <c r="V3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -957,15 +1249,11 @@
       <c r="Q4" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
       <c r="U4" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="0"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1017,19 +1305,17 @@
       <c r="Q5" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0">
+      <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5" s="0">
+      <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
         <v>154</v>
       </c>
-      <c r="V5" s="0"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1081,23 +1367,23 @@
       <c r="Q6" t="s">
         <v>137</v>
       </c>
-      <c r="R6" s="0">
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="S6" s="0">
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="T6" s="0">
+      <c r="T6">
         <v>6</v>
       </c>
       <c r="U6" t="s">
         <v>152</v>
       </c>
-      <c r="V6" s="0">
+      <c r="V6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1149,21 +1435,20 @@
       <c r="Q7" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0">
+      <c r="S7">
         <v>4</v>
       </c>
-      <c r="T7" s="0">
+      <c r="T7">
         <v>3</v>
       </c>
       <c r="U7" t="s">
         <v>99</v>
       </c>
-      <c r="V7" s="0">
+      <c r="V7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1215,15 +1500,11 @@
       <c r="Q8" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
       <c r="U8" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="0"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1275,23 +1556,23 @@
       <c r="Q9" t="s">
         <v>141</v>
       </c>
-      <c r="R9" s="0">
+      <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" s="0">
+      <c r="S9">
         <v>1</v>
       </c>
-      <c r="T9" s="0">
+      <c r="T9">
         <v>1</v>
       </c>
       <c r="U9" t="s">
         <v>153</v>
       </c>
-      <c r="V9" s="0">
+      <c r="V9">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1343,23 +1624,23 @@
       <c r="Q10" t="s">
         <v>142</v>
       </c>
-      <c r="R10" s="0">
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="0">
+      <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10" s="0">
+      <c r="T10">
         <v>4</v>
       </c>
       <c r="U10" t="s">
         <v>155</v>
       </c>
-      <c r="V10" s="0">
+      <c r="V10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1411,23 +1692,23 @@
       <c r="Q11" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="0">
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="0">
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="T11" s="0">
+      <c r="T11">
         <v>4</v>
       </c>
       <c r="U11" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="0">
+      <c r="V11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1479,21 +1760,20 @@
       <c r="Q12" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="0">
+      <c r="R12">
         <v>22</v>
       </c>
-      <c r="S12" s="0">
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12" s="0"/>
       <c r="U12" t="s">
         <v>153</v>
       </c>
-      <c r="V12" s="0">
+      <c r="V12">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1545,21 +1825,20 @@
       <c r="Q13" t="s">
         <v>144</v>
       </c>
-      <c r="R13" s="0">
+      <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0">
+      <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="0">
+      <c r="V13">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1611,21 +1890,20 @@
       <c r="Q14" t="s">
         <v>145</v>
       </c>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0">
+      <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" s="0">
+      <c r="T14">
         <v>5</v>
       </c>
       <c r="U14" t="s">
         <v>152</v>
       </c>
-      <c r="V14" s="0">
+      <c r="V14">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1677,21 +1955,20 @@
       <c r="Q15" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="0">
+      <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0">
+      <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
         <v>155</v>
       </c>
-      <c r="V15" s="0">
+      <c r="V15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1743,21 +2020,20 @@
       <c r="Q16" t="s">
         <v>140</v>
       </c>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0">
+      <c r="S16">
         <v>4</v>
       </c>
-      <c r="T16" s="0">
+      <c r="T16">
         <v>3</v>
       </c>
       <c r="U16" t="s">
         <v>99</v>
       </c>
-      <c r="V16" s="0">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1809,21 +2085,20 @@
       <c r="Q17" t="s">
         <v>140</v>
       </c>
-      <c r="R17" s="0">
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="S17" s="0">
+      <c r="S17">
         <v>4</v>
       </c>
-      <c r="T17" s="0"/>
       <c r="U17" t="s">
         <v>154</v>
       </c>
-      <c r="V17" s="0">
+      <c r="V17">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1875,23 +2150,23 @@
       <c r="Q18" t="s">
         <v>140</v>
       </c>
-      <c r="R18" s="0">
-        <v>3</v>
-      </c>
-      <c r="S18" s="0">
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" s="0">
+      <c r="T18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
         <v>99</v>
       </c>
-      <c r="V18" s="0">
+      <c r="V18">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1943,23 +2218,23 @@
       <c r="Q19" t="s">
         <v>146</v>
       </c>
-      <c r="R19" s="0">
+      <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19" s="0">
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" s="0">
+      <c r="T19">
         <v>3</v>
       </c>
       <c r="U19" t="s">
         <v>154</v>
       </c>
-      <c r="V19" s="0">
+      <c r="V19">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2011,23 +2286,23 @@
       <c r="Q20" t="s">
         <v>146</v>
       </c>
-      <c r="R20" s="0">
+      <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20" s="0">
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="T20" s="0">
+      <c r="T20">
         <v>97</v>
       </c>
       <c r="U20" t="s">
         <v>155</v>
       </c>
-      <c r="V20" s="0">
+      <c r="V20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2079,23 +2354,23 @@
       <c r="Q21" t="s">
         <v>145</v>
       </c>
-      <c r="R21" s="0">
-        <v>3</v>
-      </c>
-      <c r="S21" s="0">
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
         <v>4</v>
       </c>
-      <c r="T21" s="0">
+      <c r="T21">
         <v>6</v>
       </c>
       <c r="U21" t="s">
         <v>152</v>
       </c>
-      <c r="V21" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="V21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2147,23 +2422,23 @@
       <c r="Q22" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="0">
+      <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22" s="0">
+      <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="0">
+      <c r="T22">
         <v>2</v>
       </c>
       <c r="U22" t="s">
         <v>153</v>
       </c>
-      <c r="V22" s="0">
+      <c r="V22">
         <v>2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2215,21 +2490,20 @@
       <c r="Q23" t="s">
         <v>146</v>
       </c>
-      <c r="R23" s="0">
+      <c r="R23">
         <v>64</v>
       </c>
-      <c r="S23" s="0">
+      <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23" s="0">
+      <c r="T23">
         <v>5</v>
       </c>
       <c r="U23" t="s">
         <v>152</v>
       </c>
-      <c r="V23" s="0"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2281,23 +2555,23 @@
       <c r="Q24" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="0">
+      <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24" s="0">
+      <c r="S24">
         <v>4</v>
       </c>
-      <c r="T24" s="0">
+      <c r="T24">
         <v>85</v>
       </c>
       <c r="U24" t="s">
         <v>154</v>
       </c>
-      <c r="V24" s="0">
+      <c r="V24">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2349,21 +2623,20 @@
       <c r="Q25" t="s">
         <v>138</v>
       </c>
-      <c r="R25" s="0">
+      <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0">
+      <c r="T25">
         <v>54</v>
       </c>
       <c r="U25" t="s">
         <v>154</v>
       </c>
-      <c r="V25" s="0">
+      <c r="V25">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2415,23 +2688,23 @@
       <c r="Q26" t="s">
         <v>146</v>
       </c>
-      <c r="R26" s="0">
+      <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" s="0">
+      <c r="S26">
         <v>2</v>
       </c>
-      <c r="T26" s="0">
+      <c r="T26">
         <v>97</v>
       </c>
       <c r="U26" t="s">
         <v>155</v>
       </c>
-      <c r="V26" s="0">
+      <c r="V26">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2483,23 +2756,23 @@
       <c r="Q27" t="s">
         <v>142</v>
       </c>
-      <c r="R27" s="0">
+      <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" s="0">
+      <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27" s="0">
+      <c r="T27">
         <v>0</v>
       </c>
       <c r="U27" t="s">
         <v>154</v>
       </c>
-      <c r="V27" s="0">
+      <c r="V27">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2551,24 +2824,24 @@
       <c r="Q28" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
       <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="0"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2576,7 +2849,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2857,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2592,7 +2865,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2600,7 +2873,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2608,7 +2881,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2616,7 +2889,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2624,7 +2897,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2632,7 +2905,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2640,7 +2913,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2648,7 +2921,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2656,7 +2929,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -2664,7 +2937,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2672,7 +2945,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -2680,7 +2953,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2688,7 +2961,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -2696,7 +2969,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -2704,7 +2977,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -2712,7 +2985,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -2720,7 +2993,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -2728,7 +3001,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -2736,7 +3009,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -2744,7 +3017,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -2753,15 +3026,25 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -2769,10 +3052,10 @@
         <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -2783,7 +3066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -2794,7 +3077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -2805,7 +3088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -2816,7 +3099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2827,7 +3110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -2838,7 +3121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -2849,7 +3132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -2860,7 +3143,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -2871,7 +3154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2882,7 +3165,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -2893,7 +3176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2904,7 +3187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -2915,7 +3198,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -2926,7 +3209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -2937,7 +3220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -2948,7 +3231,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -2956,10 +3239,10 @@
         <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -2967,827 +3250,1068 @@
         <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" t="s">
-        <v>196</v>
-      </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
         <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1401</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2">
         <v>41</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>152.30000000000001</v>
       </c>
-      <c r="H2" s="0">
-        <v>48.759999999999998</v>
-      </c>
-      <c r="I2" s="0">
+      <c r="H2">
+        <v>48.76</v>
+      </c>
+      <c r="I2">
         <v>108</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>66</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>179</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>10.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1652</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="0">
+        <v>205</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>160.30000000000001</v>
       </c>
-      <c r="H3" s="0">
-        <v>53.299999999999997</v>
-      </c>
-      <c r="I3" s="0">
+      <c r="H3">
+        <v>53.3</v>
+      </c>
+      <c r="I3">
         <v>98</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>60</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>113</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>13.9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1735</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="0">
+        <v>206</v>
+      </c>
+      <c r="F4">
         <v>53</v>
       </c>
-      <c r="G4" s="0">
-        <v>177.69999999999999</v>
-      </c>
-      <c r="H4" s="0">
-        <v>96.620000000000005</v>
-      </c>
-      <c r="I4" s="0">
+      <c r="G4">
+        <v>177.7</v>
+      </c>
+      <c r="H4">
+        <v>96.62</v>
+      </c>
+      <c r="I4">
         <v>106</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>56</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4">
         <v>184</v>
       </c>
-      <c r="L4" s="0">
-        <v>10.300000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="L4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2675</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="0">
+        <v>204</v>
+      </c>
+      <c r="F5">
         <v>69</v>
       </c>
-      <c r="G5" s="0">
-        <v>169.19999999999999</v>
-      </c>
-      <c r="H5" s="0">
-        <v>58.509999999999998</v>
-      </c>
-      <c r="I5" s="0">
+      <c r="G5">
+        <v>169.2</v>
+      </c>
+      <c r="H5">
+        <v>58.51</v>
+      </c>
+      <c r="I5">
         <v>140</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>55</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>235</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5">
         <v>11.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>12419</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="0">
+        <v>205</v>
+      </c>
+      <c r="F6">
         <v>69</v>
       </c>
-      <c r="G6" s="0">
-        <v>172.19999999999999</v>
-      </c>
-      <c r="H6" s="0">
-        <v>62.030000000000001</v>
-      </c>
-      <c r="I6" s="0">
+      <c r="G6">
+        <v>172.2</v>
+      </c>
+      <c r="H6">
+        <v>62.03</v>
+      </c>
+      <c r="I6">
         <v>150</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>88</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>198</v>
       </c>
-      <c r="L6" s="0">
-        <v>11.300000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="L6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>12664</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="0">
+        <v>204</v>
+      </c>
+      <c r="F7">
         <v>39</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>168</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>56.93</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>80</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>231</v>
       </c>
-      <c r="L7" s="0">
+      <c r="L7">
         <v>10.1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>13666</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="0">
+        <v>204</v>
+      </c>
+      <c r="F8">
         <v>68</v>
       </c>
-      <c r="G8" s="0">
-        <v>164.09999999999999</v>
-      </c>
-      <c r="H8" s="0">
-        <v>73.370000000000005</v>
-      </c>
-      <c r="I8" s="0">
+      <c r="G8">
+        <v>164.1</v>
+      </c>
+      <c r="H8">
+        <v>73.37</v>
+      </c>
+      <c r="I8">
         <v>130</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>80</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>218</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>15407</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="0">
+        <v>205</v>
+      </c>
+      <c r="F9">
         <v>21</v>
       </c>
-      <c r="G9" s="0">
-        <v>169.80000000000001</v>
-      </c>
-      <c r="H9" s="0">
-        <v>50.350000000000001</v>
-      </c>
-      <c r="I9" s="0">
+      <c r="G9">
+        <v>169.8</v>
+      </c>
+      <c r="H9">
+        <v>50.35</v>
+      </c>
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>64</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>161</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>11.9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>15523</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="0">
+        <v>204</v>
+      </c>
+      <c r="F10">
         <v>66</v>
       </c>
-      <c r="G10" s="0">
-        <v>169.09999999999999</v>
-      </c>
-      <c r="H10" s="0">
-        <v>58.170000000000002</v>
-      </c>
-      <c r="I10" s="0">
+      <c r="G10">
+        <v>169.1</v>
+      </c>
+      <c r="H10">
+        <v>58.17</v>
+      </c>
+      <c r="I10">
         <v>140</v>
       </c>
-      <c r="J10" s="0">
-        <v>76</v>
-      </c>
-      <c r="K10" s="0">
+      <c r="J10">
+        <v>76</v>
+      </c>
+      <c r="K10">
         <v>190</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>19706</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="0">
+        <v>204</v>
+      </c>
+      <c r="F11">
         <v>55</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>161.80000000000001</v>
       </c>
-      <c r="H11" s="0">
-        <v>64.519999999999996</v>
-      </c>
-      <c r="I11" s="0">
+      <c r="H11">
+        <v>64.52</v>
+      </c>
+      <c r="I11">
         <v>170</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>86</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>180</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>29472</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="0">
+        <v>204</v>
+      </c>
+      <c r="F12">
         <v>63</v>
       </c>
-      <c r="G12" s="0">
-        <v>174.30000000000001</v>
-      </c>
-      <c r="H12" s="0">
-        <v>60.670000000000002</v>
-      </c>
-      <c r="I12" s="0">
+      <c r="G12">
+        <v>174.3</v>
+      </c>
+      <c r="H12">
+        <v>60.67</v>
+      </c>
+      <c r="I12">
         <v>125</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>70</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>221</v>
       </c>
-      <c r="L12" s="0">
-        <v>14.199999999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+      <c r="L12">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>32639</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="0">
+        <v>206</v>
+      </c>
+      <c r="F13">
         <v>43</v>
       </c>
-      <c r="G13" s="0">
-        <v>181.80000000000001</v>
-      </c>
-      <c r="H13" s="0">
+      <c r="G13">
+        <v>181.8</v>
+      </c>
+      <c r="H13">
         <v>69.510000000000005</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>118</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>75</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>171</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>33682</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="0">
+        <v>204</v>
+      </c>
+      <c r="F14">
         <v>31</v>
       </c>
-      <c r="G14" s="0">
-        <v>164.09999999999999</v>
-      </c>
-      <c r="H14" s="0">
-        <v>66.230000000000004</v>
-      </c>
-      <c r="I14" s="0">
+      <c r="G14">
+        <v>164.1</v>
+      </c>
+      <c r="H14">
+        <v>66.23</v>
+      </c>
+      <c r="I14">
         <v>90</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14">
         <v>60</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <v>174</v>
       </c>
-      <c r="L14" s="0">
-        <v>11.199999999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+      <c r="L14">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>43664</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="0">
+        <v>205</v>
+      </c>
+      <c r="F15">
         <v>64</v>
       </c>
-      <c r="G15" s="0">
-        <v>166.40000000000001</v>
-      </c>
-      <c r="H15" s="0">
-        <v>65.890000000000001</v>
-      </c>
-      <c r="I15" s="0">
+      <c r="G15">
+        <v>166.4</v>
+      </c>
+      <c r="H15">
+        <v>65.89</v>
+      </c>
+      <c r="I15">
         <v>102</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J15">
         <v>75</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <v>195</v>
       </c>
-      <c r="L15" s="0">
+      <c r="L15">
         <v>14.6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>43739</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" s="0">
+        <v>204</v>
+      </c>
+      <c r="F16">
         <v>33</v>
       </c>
-      <c r="G16" s="0">
-        <v>160.40000000000001</v>
-      </c>
-      <c r="H16" s="0">
+      <c r="G16">
+        <v>160.4</v>
+      </c>
+      <c r="H16">
         <v>66.790000000000006</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>125</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16">
         <v>80</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <v>182</v>
       </c>
-      <c r="L16" s="0">
+      <c r="L16">
         <v>12.4</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>44494</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="0">
+        <v>204</v>
+      </c>
+      <c r="F17">
         <v>24</v>
       </c>
-      <c r="G17" s="0">
-        <v>180.69999999999999</v>
-      </c>
-      <c r="H17" s="0">
-        <v>86.299999999999997</v>
-      </c>
-      <c r="I17" s="0">
+      <c r="G17">
+        <v>180.7</v>
+      </c>
+      <c r="H17">
+        <v>86.3</v>
+      </c>
+      <c r="I17">
         <v>140</v>
       </c>
-      <c r="J17" s="0">
+      <c r="J17">
         <v>84</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <v>208</v>
       </c>
-      <c r="L17" s="0">
-        <v>15.699999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="L17">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>46424</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" s="0">
+        <v>206</v>
+      </c>
+      <c r="F18">
         <v>44</v>
       </c>
-      <c r="G18" s="0">
-        <v>166.40000000000001</v>
-      </c>
-      <c r="H18" s="0">
-        <v>85.280000000000001</v>
-      </c>
-      <c r="I18" s="0">
+      <c r="G18">
+        <v>166.4</v>
+      </c>
+      <c r="H18">
+        <v>85.28</v>
+      </c>
+      <c r="I18">
         <v>150</v>
       </c>
-      <c r="J18" s="0">
+      <c r="J18">
         <v>94</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <v>216</v>
       </c>
-      <c r="L18" s="0">
+      <c r="L18">
         <v>11.4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>50679</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="0">
+        <v>204</v>
+      </c>
+      <c r="F19">
         <v>37</v>
       </c>
-      <c r="G19" s="0">
-        <v>163.59999999999999</v>
-      </c>
-      <c r="H19" s="0">
-        <v>49.329999999999998</v>
-      </c>
-      <c r="I19" s="0">
+      <c r="G19">
+        <v>163.6</v>
+      </c>
+      <c r="H19">
+        <v>49.33</v>
+      </c>
+      <c r="I19">
         <v>126</v>
       </c>
-      <c r="J19" s="0">
+      <c r="J19">
         <v>86</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <v>179</v>
       </c>
-      <c r="L19" s="0">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+      <c r="L19">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>56658</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="0">
+        <v>204</v>
+      </c>
+      <c r="F20">
         <v>42</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>160.19999999999999</v>
       </c>
-      <c r="H20" s="0">
-        <v>50.350000000000001</v>
-      </c>
-      <c r="I20" s="0">
+      <c r="H20">
+        <v>50.35</v>
+      </c>
+      <c r="I20">
         <v>110</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J20">
         <v>70</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <v>166</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20">
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>58693</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="0">
+        <v>206</v>
+      </c>
+      <c r="F21">
         <v>35</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>157</v>
       </c>
-      <c r="H21" s="0">
-        <v>81.310000000000002</v>
-      </c>
-      <c r="I21" s="0">
+      <c r="H21">
+        <v>81.31</v>
+      </c>
+      <c r="I21">
         <v>140</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J21">
         <v>90</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <v>230</v>
       </c>
-      <c r="L21" s="0">
+      <c r="L21">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44405</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44463</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44430</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44499</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44420</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44398</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44566</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44396</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44434</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44504</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44408</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44528</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44428</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44403</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44502</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44468</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44489</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44479</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEMResearch\OneDrive\stem\training\cemre\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="staff" sheetId="1" r:id="rId1"/>
-    <sheet name="variables" sheetId="2" r:id="rId2"/>
-    <sheet name="clean_values" sheetId="3" r:id="rId3"/>
-    <sheet name="health" sheetId="4" r:id="rId4"/>
-    <sheet name="dates" sheetId="5" r:id="rId5"/>
+    <sheet name="staff" sheetId="1" r:id="rId2"/>
+    <sheet name="variables" sheetId="2" r:id="rId4"/>
+    <sheet name="clean_values" sheetId="3" r:id="rId5"/>
+    <sheet name="health" sheetId="4" r:id="rId6"/>
+    <sheet name="dates" sheetId="5" r:id="rId7"/>
+    <sheet name="countries" sheetId="6" r:id="rId8"/>
+    <sheet name="gold" sheetId="7" r:id="rId9"/>
+    <sheet name="silver" sheetId="8" r:id="rId10"/>
+    <sheet name="bronze" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="288">
   <si>
     <t>Employment ID</t>
   </si>
@@ -598,6 +596,9 @@
     <t>Microsoft Azure</t>
   </si>
   <si>
+    <t>o</t>
+  </si>
+  <si>
     <t>correct_value</t>
   </si>
   <si>
@@ -674,13 +675,223 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>Algiers</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Yaounde</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Monrovia</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Lusaka</t>
+  </si>
+  <si>
+    <t>Harare</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>Soviet Union</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>URS</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>bronze</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -702,307 +913,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1001,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1122,17 +1053,19 @@
       <c r="Q2" t="s">
         <v>137</v>
       </c>
-      <c r="S2">
+      <c r="R2" s="0"/>
+      <c r="S2" s="0">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="0">
         <v>2</v>
       </c>
       <c r="U2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V2" s="0"/>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1184,20 +1117,21 @@
       <c r="Q3" t="s">
         <v>138</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="0">
         <v>22</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="0">
         <v>0</v>
       </c>
+      <c r="T3" s="0"/>
       <c r="U3" t="s">
         <v>153</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1249,11 +1183,15 @@
       <c r="Q4" t="s">
         <v>3</v>
       </c>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
       <c r="U4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V4" s="0"/>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1305,17 +1243,19 @@
       <c r="Q5" t="s">
         <v>139</v>
       </c>
-      <c r="S5">
+      <c r="R5" s="0"/>
+      <c r="S5" s="0">
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="0">
         <v>0</v>
       </c>
       <c r="U5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V5" s="0"/>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1367,23 +1307,23 @@
       <c r="Q6" t="s">
         <v>137</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="0">
         <v>2</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="0">
         <v>4</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="0">
         <v>6</v>
       </c>
       <c r="U6" t="s">
         <v>152</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1435,20 +1375,21 @@
       <c r="Q7" t="s">
         <v>140</v>
       </c>
-      <c r="S7">
+      <c r="R7" s="0"/>
+      <c r="S7" s="0">
         <v>4</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="0">
         <v>3</v>
       </c>
       <c r="U7" t="s">
         <v>99</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1500,11 +1441,15 @@
       <c r="Q8" t="s">
         <v>3</v>
       </c>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
       <c r="U8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V8" s="0"/>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1556,23 +1501,23 @@
       <c r="Q9" t="s">
         <v>141</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="0">
         <v>1</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="0">
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="0">
         <v>1</v>
       </c>
       <c r="U9" t="s">
         <v>153</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1624,23 +1569,23 @@
       <c r="Q10" t="s">
         <v>142</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="0">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="0">
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="0">
         <v>4</v>
       </c>
       <c r="U10" t="s">
         <v>155</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1692,23 +1637,23 @@
       <c r="Q11" t="s">
         <v>143</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="0">
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="0">
         <v>2</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="0">
         <v>4</v>
       </c>
       <c r="U11" t="s">
         <v>154</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1760,20 +1705,21 @@
       <c r="Q12" t="s">
         <v>138</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="0">
         <v>22</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="0">
         <v>0</v>
       </c>
+      <c r="T12" s="0"/>
       <c r="U12" t="s">
         <v>153</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1825,20 +1771,21 @@
       <c r="Q13" t="s">
         <v>144</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="0">
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="S13" s="0"/>
+      <c r="T13" s="0">
         <v>0</v>
       </c>
       <c r="U13" t="s">
         <v>155</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1890,20 +1837,21 @@
       <c r="Q14" t="s">
         <v>145</v>
       </c>
-      <c r="S14">
+      <c r="R14" s="0"/>
+      <c r="S14" s="0">
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="0">
         <v>5</v>
       </c>
       <c r="U14" t="s">
         <v>152</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1955,20 +1903,21 @@
       <c r="Q15" t="s">
         <v>144</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="0">
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="S15" s="0"/>
+      <c r="T15" s="0">
         <v>0</v>
       </c>
       <c r="U15" t="s">
         <v>155</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2020,20 +1969,21 @@
       <c r="Q16" t="s">
         <v>140</v>
       </c>
-      <c r="S16">
+      <c r="R16" s="0"/>
+      <c r="S16" s="0">
         <v>4</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="0">
         <v>3</v>
       </c>
       <c r="U16" t="s">
         <v>99</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2085,20 +2035,21 @@
       <c r="Q17" t="s">
         <v>140</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="0">
         <v>2</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="0">
         <v>4</v>
       </c>
+      <c r="T17" s="0"/>
       <c r="U17" t="s">
         <v>154</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2150,23 +2101,23 @@
       <c r="Q18" t="s">
         <v>140</v>
       </c>
-      <c r="R18">
-        <v>3</v>
-      </c>
-      <c r="S18">
+      <c r="R18" s="0">
+        <v>3</v>
+      </c>
+      <c r="S18" s="0">
         <v>0</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="0">
         <v>0</v>
       </c>
       <c r="U18" t="s">
         <v>99</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2218,23 +2169,23 @@
       <c r="Q19" t="s">
         <v>146</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="0">
         <v>0</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="0">
         <v>0</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="0">
         <v>3</v>
       </c>
       <c r="U19" t="s">
         <v>154</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2286,23 +2237,23 @@
       <c r="Q20" t="s">
         <v>146</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="0">
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="0">
         <v>2</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="0">
         <v>97</v>
       </c>
       <c r="U20" t="s">
         <v>155</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2354,23 +2305,23 @@
       <c r="Q21" t="s">
         <v>145</v>
       </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
+      <c r="R21" s="0">
+        <v>3</v>
+      </c>
+      <c r="S21" s="0">
         <v>4</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="0">
         <v>6</v>
       </c>
       <c r="U21" t="s">
         <v>152</v>
       </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V21" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2422,23 +2373,23 @@
       <c r="Q22" t="s">
         <v>140</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="0">
         <v>1</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="0">
         <v>0</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="0">
         <v>2</v>
       </c>
       <c r="U22" t="s">
         <v>153</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2490,20 +2441,21 @@
       <c r="Q23" t="s">
         <v>146</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="0">
         <v>64</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="0">
         <v>0</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="0">
         <v>5</v>
       </c>
       <c r="U23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V23" s="0"/>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2555,23 +2507,23 @@
       <c r="Q24" t="s">
         <v>147</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="0">
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="0">
         <v>4</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="0">
         <v>85</v>
       </c>
       <c r="U24" t="s">
         <v>154</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2623,20 +2575,21 @@
       <c r="Q25" t="s">
         <v>138</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="0">
         <v>0</v>
       </c>
-      <c r="T25">
+      <c r="S25" s="0"/>
+      <c r="T25" s="0">
         <v>54</v>
       </c>
       <c r="U25" t="s">
         <v>154</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2688,23 +2641,23 @@
       <c r="Q26" t="s">
         <v>146</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="0">
         <v>0</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="0">
         <v>2</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="0">
         <v>97</v>
       </c>
       <c r="U26" t="s">
         <v>155</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2756,23 +2709,23 @@
       <c r="Q27" t="s">
         <v>142</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="0">
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="0">
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="0">
         <v>0</v>
       </c>
       <c r="U27" t="s">
         <v>154</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2824,24 +2777,24 @@
       <c r="Q28" t="s">
         <v>3</v>
       </c>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
       <c r="U28" t="s">
         <v>3</v>
       </c>
+      <c r="V28" s="0"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2849,7 +2802,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2857,7 +2810,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2865,7 +2818,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2873,7 +2826,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2881,7 +2834,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2889,7 +2842,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2897,7 +2850,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2905,7 +2858,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2913,7 +2866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2921,7 +2874,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2929,7 +2882,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -2937,7 +2890,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2945,7 +2898,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -2953,7 +2906,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2961,7 +2914,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -2969,7 +2922,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -2977,7 +2930,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -2985,7 +2938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -2993,7 +2946,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -3001,7 +2954,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -3009,7 +2962,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -3017,7 +2970,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -3026,25 +2979,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -3052,10 +2995,10 @@
         <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -3066,7 +3009,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -3077,7 +3020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -3088,7 +3031,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -3099,7 +3042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -3110,7 +3053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -3121,7 +3064,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -3132,7 +3075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -3143,7 +3086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -3154,7 +3097,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3165,7 +3108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -3176,7 +3119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3187,7 +3130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -3198,7 +3141,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -3209,7 +3152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -3220,7 +3163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -3231,7 +3174,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -3239,10 +3182,10 @@
         <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -3250,848 +3193,848 @@
         <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
         <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
         <v>1401</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2">
+        <v>205</v>
+      </c>
+      <c r="F2" s="0">
         <v>41</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>152.30000000000001</v>
       </c>
-      <c r="H2">
-        <v>48.76</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="0">
+        <v>48.759999999999998</v>
+      </c>
+      <c r="I2" s="0">
         <v>108</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>66</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>179</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>10.9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0">
         <v>1652</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3">
+        <v>206</v>
+      </c>
+      <c r="F3" s="0">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>160.30000000000001</v>
       </c>
-      <c r="H3">
-        <v>53.3</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="0">
+        <v>53.299999999999997</v>
+      </c>
+      <c r="I3" s="0">
         <v>98</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>60</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>113</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>13.9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0">
         <v>1735</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4">
+        <v>207</v>
+      </c>
+      <c r="F4" s="0">
         <v>53</v>
       </c>
-      <c r="G4">
-        <v>177.7</v>
-      </c>
-      <c r="H4">
-        <v>96.62</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="0">
+        <v>177.69999999999999</v>
+      </c>
+      <c r="H4" s="0">
+        <v>96.620000000000005</v>
+      </c>
+      <c r="I4" s="0">
         <v>106</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>56</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0">
         <v>184</v>
       </c>
-      <c r="L4">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L4" s="0">
+        <v>10.300000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>2675</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5">
+        <v>205</v>
+      </c>
+      <c r="F5" s="0">
         <v>69</v>
       </c>
-      <c r="G5">
-        <v>169.2</v>
-      </c>
-      <c r="H5">
-        <v>58.51</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="0">
+        <v>169.19999999999999</v>
+      </c>
+      <c r="H5" s="0">
+        <v>58.509999999999998</v>
+      </c>
+      <c r="I5" s="0">
         <v>140</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>55</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>235</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>11.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0">
         <v>12419</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6">
+        <v>206</v>
+      </c>
+      <c r="F6" s="0">
         <v>69</v>
       </c>
-      <c r="G6">
-        <v>172.2</v>
-      </c>
-      <c r="H6">
-        <v>62.03</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="0">
+        <v>172.19999999999999</v>
+      </c>
+      <c r="H6" s="0">
+        <v>62.030000000000001</v>
+      </c>
+      <c r="I6" s="0">
         <v>150</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0">
         <v>88</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0">
         <v>198</v>
       </c>
-      <c r="L6">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="L6" s="0">
+        <v>11.300000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>12664</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7">
+        <v>205</v>
+      </c>
+      <c r="F7" s="0">
         <v>39</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>168</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>56.93</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>120</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0">
         <v>80</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0">
         <v>231</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0">
         <v>10.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0">
         <v>13666</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8">
+        <v>205</v>
+      </c>
+      <c r="F8" s="0">
         <v>68</v>
       </c>
-      <c r="G8">
-        <v>164.1</v>
-      </c>
-      <c r="H8">
-        <v>73.37</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="0">
+        <v>164.09999999999999</v>
+      </c>
+      <c r="H8" s="0">
+        <v>73.370000000000005</v>
+      </c>
+      <c r="I8" s="0">
         <v>130</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0">
         <v>80</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0">
         <v>218</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0">
         <v>15407</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9">
+        <v>206</v>
+      </c>
+      <c r="F9" s="0">
         <v>21</v>
       </c>
-      <c r="G9">
-        <v>169.8</v>
-      </c>
-      <c r="H9">
-        <v>50.35</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="0">
+        <v>169.80000000000001</v>
+      </c>
+      <c r="H9" s="0">
+        <v>50.350000000000001</v>
+      </c>
+      <c r="I9" s="0">
         <v>100</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0">
         <v>64</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0">
         <v>161</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0">
         <v>11.9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0">
         <v>15523</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10">
+        <v>205</v>
+      </c>
+      <c r="F10" s="0">
         <v>66</v>
       </c>
-      <c r="G10">
-        <v>169.1</v>
-      </c>
-      <c r="H10">
-        <v>58.17</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="0">
+        <v>169.09999999999999</v>
+      </c>
+      <c r="H10" s="0">
+        <v>58.170000000000002</v>
+      </c>
+      <c r="I10" s="0">
         <v>140</v>
       </c>
-      <c r="J10">
-        <v>76</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="0">
+        <v>76</v>
+      </c>
+      <c r="K10" s="0">
         <v>190</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0">
         <v>19706</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11">
+        <v>205</v>
+      </c>
+      <c r="F11" s="0">
         <v>55</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>161.80000000000001</v>
       </c>
-      <c r="H11">
-        <v>64.52</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="0">
+        <v>64.519999999999996</v>
+      </c>
+      <c r="I11" s="0">
         <v>170</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0">
         <v>86</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0">
         <v>180</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0">
         <v>29472</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12">
+        <v>205</v>
+      </c>
+      <c r="F12" s="0">
         <v>63</v>
       </c>
-      <c r="G12">
-        <v>174.3</v>
-      </c>
-      <c r="H12">
-        <v>60.67</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="0">
+        <v>174.30000000000001</v>
+      </c>
+      <c r="H12" s="0">
+        <v>60.670000000000002</v>
+      </c>
+      <c r="I12" s="0">
         <v>125</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0">
         <v>70</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0">
         <v>221</v>
       </c>
-      <c r="L12">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="L12" s="0">
+        <v>14.199999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>32639</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13">
+        <v>207</v>
+      </c>
+      <c r="F13" s="0">
         <v>43</v>
       </c>
-      <c r="G13">
-        <v>181.8</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="0">
+        <v>181.80000000000001</v>
+      </c>
+      <c r="H13" s="0">
         <v>69.510000000000005</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>118</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0">
         <v>75</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <v>171</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0">
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0">
         <v>33682</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14">
+        <v>205</v>
+      </c>
+      <c r="F14" s="0">
         <v>31</v>
       </c>
-      <c r="G14">
-        <v>164.1</v>
-      </c>
-      <c r="H14">
-        <v>66.23</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="0">
+        <v>164.09999999999999</v>
+      </c>
+      <c r="H14" s="0">
+        <v>66.230000000000004</v>
+      </c>
+      <c r="I14" s="0">
         <v>90</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0">
         <v>60</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <v>174</v>
       </c>
-      <c r="L14">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="L14" s="0">
+        <v>11.199999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>43664</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15">
+        <v>206</v>
+      </c>
+      <c r="F15" s="0">
         <v>64</v>
       </c>
-      <c r="G15">
-        <v>166.4</v>
-      </c>
-      <c r="H15">
-        <v>65.89</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="0">
+        <v>166.40000000000001</v>
+      </c>
+      <c r="H15" s="0">
+        <v>65.890000000000001</v>
+      </c>
+      <c r="I15" s="0">
         <v>102</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0">
         <v>75</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <v>195</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0">
         <v>14.6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0">
         <v>43739</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16">
+        <v>205</v>
+      </c>
+      <c r="F16" s="0">
         <v>33</v>
       </c>
-      <c r="G16">
-        <v>160.4</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="0">
+        <v>160.40000000000001</v>
+      </c>
+      <c r="H16" s="0">
         <v>66.790000000000006</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>125</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0">
         <v>80</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <v>182</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0">
         <v>12.4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0">
         <v>44494</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
-      </c>
-      <c r="F17">
+        <v>205</v>
+      </c>
+      <c r="F17" s="0">
         <v>24</v>
       </c>
-      <c r="G17">
-        <v>180.7</v>
-      </c>
-      <c r="H17">
-        <v>86.3</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="0">
+        <v>180.69999999999999</v>
+      </c>
+      <c r="H17" s="0">
+        <v>86.299999999999997</v>
+      </c>
+      <c r="I17" s="0">
         <v>140</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0">
         <v>84</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <v>208</v>
       </c>
-      <c r="L17">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="L17" s="0">
+        <v>15.699999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>46424</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18">
+        <v>207</v>
+      </c>
+      <c r="F18" s="0">
         <v>44</v>
       </c>
-      <c r="G18">
-        <v>166.4</v>
-      </c>
-      <c r="H18">
-        <v>85.28</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="0">
+        <v>166.40000000000001</v>
+      </c>
+      <c r="H18" s="0">
+        <v>85.280000000000001</v>
+      </c>
+      <c r="I18" s="0">
         <v>150</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="0">
         <v>94</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <v>216</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0">
         <v>11.4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0">
         <v>50679</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19">
+        <v>205</v>
+      </c>
+      <c r="F19" s="0">
         <v>37</v>
       </c>
-      <c r="G19">
-        <v>163.6</v>
-      </c>
-      <c r="H19">
-        <v>49.33</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="0">
+        <v>163.59999999999999</v>
+      </c>
+      <c r="H19" s="0">
+        <v>49.329999999999998</v>
+      </c>
+      <c r="I19" s="0">
         <v>126</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0">
         <v>86</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <v>179</v>
       </c>
-      <c r="L19">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="L19" s="0">
+        <v>12.300000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>56658</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20">
+        <v>205</v>
+      </c>
+      <c r="F20" s="0">
         <v>42</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>160.19999999999999</v>
       </c>
-      <c r="H20">
-        <v>50.35</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="0">
+        <v>50.350000000000001</v>
+      </c>
+      <c r="I20" s="0">
         <v>110</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0">
         <v>70</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <v>166</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0">
         <v>58693</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21">
+        <v>207</v>
+      </c>
+      <c r="F21" s="0">
         <v>35</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>157</v>
       </c>
-      <c r="H21">
-        <v>81.31</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="0">
+        <v>81.310000000000002</v>
+      </c>
+      <c r="I21" s="0">
         <v>140</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="0">
         <v>90</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <v>230</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
         <v>44253</v>
       </c>
@@ -4102,7 +4045,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1">
         <v>44205</v>
       </c>
@@ -4113,7 +4056,7 @@
         <v>44605</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1">
         <v>44263</v>
       </c>
@@ -4124,7 +4067,7 @@
         <v>44663</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1">
         <v>44230</v>
       </c>
@@ -4135,7 +4078,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="1">
         <v>44299</v>
       </c>
@@ -4146,7 +4089,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1">
         <v>44220</v>
       </c>
@@ -4157,7 +4100,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="1">
         <v>44198</v>
       </c>
@@ -4168,7 +4111,7 @@
         <v>44598</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="1">
         <v>44366</v>
       </c>
@@ -4179,7 +4122,7 @@
         <v>44766</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1">
         <v>44196</v>
       </c>
@@ -4190,7 +4133,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="1">
         <v>44234</v>
       </c>
@@ -4201,7 +4144,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="1">
         <v>44304</v>
       </c>
@@ -4212,7 +4155,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="1">
         <v>44208</v>
       </c>
@@ -4223,7 +4166,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="1">
         <v>44328</v>
       </c>
@@ -4234,7 +4177,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="1">
         <v>44228</v>
       </c>
@@ -4245,7 +4188,7 @@
         <v>44628</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="1">
         <v>44203</v>
       </c>
@@ -4256,7 +4199,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="1">
         <v>44302</v>
       </c>
@@ -4267,7 +4210,7 @@
         <v>44702</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="1">
         <v>44268</v>
       </c>
@@ -4278,7 +4221,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="1">
         <v>44289</v>
       </c>
@@ -4289,7 +4232,7 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="1">
         <v>44310</v>
       </c>
@@ -4300,7 +4243,7 @@
         <v>44710</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="1">
         <v>44279</v>
       </c>
@@ -4312,6 +4255,546 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="0">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="0">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="0">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="0">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEMResearch\OneDrive\stem\training\cemre\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="staff" sheetId="1" r:id="rId2"/>
-    <sheet name="variables" sheetId="2" r:id="rId4"/>
-    <sheet name="clean_values" sheetId="3" r:id="rId5"/>
-    <sheet name="health" sheetId="4" r:id="rId6"/>
-    <sheet name="dates" sheetId="5" r:id="rId7"/>
-    <sheet name="countries" sheetId="6" r:id="rId8"/>
-    <sheet name="gold" sheetId="7" r:id="rId9"/>
-    <sheet name="silver" sheetId="8" r:id="rId10"/>
-    <sheet name="bronze" sheetId="9" r:id="rId11"/>
+    <sheet name="staff" sheetId="1" r:id="rId1"/>
+    <sheet name="variables" sheetId="2" r:id="rId2"/>
+    <sheet name="clean_values" sheetId="3" r:id="rId3"/>
+    <sheet name="health" sheetId="4" r:id="rId4"/>
+    <sheet name="dates" sheetId="5" r:id="rId5"/>
+    <sheet name="countries" sheetId="6" r:id="rId6"/>
+    <sheet name="gold" sheetId="7" r:id="rId7"/>
+    <sheet name="silver" sheetId="8" r:id="rId8"/>
+    <sheet name="bronze" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -890,8 +896,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -913,27 +919,307 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1287,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1053,19 +1339,17 @@
       <c r="Q2" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2" s="0">
+      <c r="T2">
         <v>2</v>
       </c>
       <c r="U2" t="s">
         <v>152</v>
       </c>
-      <c r="V2" s="0"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1117,21 +1401,20 @@
       <c r="Q3" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="0">
+      <c r="R3">
         <v>22</v>
       </c>
-      <c r="S3" s="0">
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3" s="0"/>
       <c r="U3" t="s">
         <v>153</v>
       </c>
-      <c r="V3" s="0">
+      <c r="V3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1183,15 +1466,11 @@
       <c r="Q4" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
       <c r="U4" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="0"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1243,19 +1522,17 @@
       <c r="Q5" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0">
+      <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5" s="0">
+      <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
         <v>154</v>
       </c>
-      <c r="V5" s="0"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1307,23 +1584,23 @@
       <c r="Q6" t="s">
         <v>137</v>
       </c>
-      <c r="R6" s="0">
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="S6" s="0">
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="T6" s="0">
+      <c r="T6">
         <v>6</v>
       </c>
       <c r="U6" t="s">
         <v>152</v>
       </c>
-      <c r="V6" s="0">
+      <c r="V6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1375,21 +1652,20 @@
       <c r="Q7" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0">
+      <c r="S7">
         <v>4</v>
       </c>
-      <c r="T7" s="0">
+      <c r="T7">
         <v>3</v>
       </c>
       <c r="U7" t="s">
         <v>99</v>
       </c>
-      <c r="V7" s="0">
+      <c r="V7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1441,15 +1717,11 @@
       <c r="Q8" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
       <c r="U8" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="0"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1501,23 +1773,23 @@
       <c r="Q9" t="s">
         <v>141</v>
       </c>
-      <c r="R9" s="0">
+      <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" s="0">
+      <c r="S9">
         <v>1</v>
       </c>
-      <c r="T9" s="0">
+      <c r="T9">
         <v>1</v>
       </c>
       <c r="U9" t="s">
         <v>153</v>
       </c>
-      <c r="V9" s="0">
+      <c r="V9">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1569,23 +1841,23 @@
       <c r="Q10" t="s">
         <v>142</v>
       </c>
-      <c r="R10" s="0">
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="0">
+      <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10" s="0">
+      <c r="T10">
         <v>4</v>
       </c>
       <c r="U10" t="s">
         <v>155</v>
       </c>
-      <c r="V10" s="0">
+      <c r="V10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1637,23 +1909,23 @@
       <c r="Q11" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="0">
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="0">
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="T11" s="0">
+      <c r="T11">
         <v>4</v>
       </c>
       <c r="U11" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="0">
+      <c r="V11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1705,21 +1977,20 @@
       <c r="Q12" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="0">
+      <c r="R12">
         <v>22</v>
       </c>
-      <c r="S12" s="0">
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12" s="0"/>
       <c r="U12" t="s">
         <v>153</v>
       </c>
-      <c r="V12" s="0">
+      <c r="V12">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1771,21 +2042,20 @@
       <c r="Q13" t="s">
         <v>144</v>
       </c>
-      <c r="R13" s="0">
+      <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0">
+      <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
         <v>155</v>
       </c>
-      <c r="V13" s="0">
+      <c r="V13">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1837,21 +2107,20 @@
       <c r="Q14" t="s">
         <v>145</v>
       </c>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0">
+      <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" s="0">
+      <c r="T14">
         <v>5</v>
       </c>
       <c r="U14" t="s">
         <v>152</v>
       </c>
-      <c r="V14" s="0">
+      <c r="V14">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1903,21 +2172,20 @@
       <c r="Q15" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="0">
+      <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0">
+      <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
         <v>155</v>
       </c>
-      <c r="V15" s="0">
+      <c r="V15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1969,21 +2237,20 @@
       <c r="Q16" t="s">
         <v>140</v>
       </c>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0">
+      <c r="S16">
         <v>4</v>
       </c>
-      <c r="T16" s="0">
+      <c r="T16">
         <v>3</v>
       </c>
       <c r="U16" t="s">
         <v>99</v>
       </c>
-      <c r="V16" s="0">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2035,21 +2302,20 @@
       <c r="Q17" t="s">
         <v>140</v>
       </c>
-      <c r="R17" s="0">
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="S17" s="0">
+      <c r="S17">
         <v>4</v>
       </c>
-      <c r="T17" s="0"/>
       <c r="U17" t="s">
         <v>154</v>
       </c>
-      <c r="V17" s="0">
+      <c r="V17">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2101,23 +2367,23 @@
       <c r="Q18" t="s">
         <v>140</v>
       </c>
-      <c r="R18" s="0">
-        <v>3</v>
-      </c>
-      <c r="S18" s="0">
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" s="0">
+      <c r="T18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
         <v>99</v>
       </c>
-      <c r="V18" s="0">
+      <c r="V18">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2169,23 +2435,23 @@
       <c r="Q19" t="s">
         <v>146</v>
       </c>
-      <c r="R19" s="0">
+      <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19" s="0">
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" s="0">
+      <c r="T19">
         <v>3</v>
       </c>
       <c r="U19" t="s">
         <v>154</v>
       </c>
-      <c r="V19" s="0">
+      <c r="V19">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2237,23 +2503,23 @@
       <c r="Q20" t="s">
         <v>146</v>
       </c>
-      <c r="R20" s="0">
+      <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20" s="0">
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="T20" s="0">
+      <c r="T20">
         <v>97</v>
       </c>
       <c r="U20" t="s">
         <v>155</v>
       </c>
-      <c r="V20" s="0">
+      <c r="V20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2305,23 +2571,23 @@
       <c r="Q21" t="s">
         <v>145</v>
       </c>
-      <c r="R21" s="0">
-        <v>3</v>
-      </c>
-      <c r="S21" s="0">
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
         <v>4</v>
       </c>
-      <c r="T21" s="0">
+      <c r="T21">
         <v>6</v>
       </c>
       <c r="U21" t="s">
         <v>152</v>
       </c>
-      <c r="V21" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="V21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2373,23 +2639,23 @@
       <c r="Q22" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="0">
+      <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22" s="0">
+      <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="0">
+      <c r="T22">
         <v>2</v>
       </c>
       <c r="U22" t="s">
         <v>153</v>
       </c>
-      <c r="V22" s="0">
+      <c r="V22">
         <v>2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2441,21 +2707,20 @@
       <c r="Q23" t="s">
         <v>146</v>
       </c>
-      <c r="R23" s="0">
+      <c r="R23">
         <v>64</v>
       </c>
-      <c r="S23" s="0">
+      <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23" s="0">
+      <c r="T23">
         <v>5</v>
       </c>
       <c r="U23" t="s">
         <v>152</v>
       </c>
-      <c r="V23" s="0"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2507,23 +2772,23 @@
       <c r="Q24" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="0">
+      <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24" s="0">
+      <c r="S24">
         <v>4</v>
       </c>
-      <c r="T24" s="0">
+      <c r="T24">
         <v>85</v>
       </c>
       <c r="U24" t="s">
         <v>154</v>
       </c>
-      <c r="V24" s="0">
+      <c r="V24">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2575,21 +2840,20 @@
       <c r="Q25" t="s">
         <v>138</v>
       </c>
-      <c r="R25" s="0">
+      <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0">
+      <c r="T25">
         <v>54</v>
       </c>
       <c r="U25" t="s">
         <v>154</v>
       </c>
-      <c r="V25" s="0">
+      <c r="V25">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2641,23 +2905,23 @@
       <c r="Q26" t="s">
         <v>146</v>
       </c>
-      <c r="R26" s="0">
+      <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" s="0">
+      <c r="S26">
         <v>2</v>
       </c>
-      <c r="T26" s="0">
+      <c r="T26">
         <v>97</v>
       </c>
       <c r="U26" t="s">
         <v>155</v>
       </c>
-      <c r="V26" s="0">
+      <c r="V26">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2709,23 +2973,23 @@
       <c r="Q27" t="s">
         <v>142</v>
       </c>
-      <c r="R27" s="0">
+      <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" s="0">
+      <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27" s="0">
+      <c r="T27">
         <v>0</v>
       </c>
       <c r="U27" t="s">
         <v>154</v>
       </c>
-      <c r="V27" s="0">
+      <c r="V27">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2777,24 +3041,24 @@
       <c r="Q28" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
       <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="0"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2802,7 +3066,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +3074,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +3082,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2826,7 +3090,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2834,7 +3098,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2842,7 +3106,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2850,7 +3114,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2858,7 +3122,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2866,7 +3130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2874,7 +3138,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2882,7 +3146,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -2890,7 +3154,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2898,7 +3162,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -2906,7 +3170,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2914,7 +3178,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -2922,7 +3186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -2930,7 +3194,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -2938,7 +3202,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -2946,7 +3210,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -2954,7 +3218,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -2962,7 +3226,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -2970,7 +3234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -2979,15 +3243,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -2998,7 +3266,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -3009,7 +3277,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -3020,7 +3288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -3031,7 +3299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -3042,7 +3310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -3053,7 +3321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -3064,7 +3332,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -3075,7 +3343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -3086,7 +3354,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -3097,7 +3365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3108,7 +3376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -3119,7 +3387,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3130,7 +3398,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -3141,7 +3409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -3152,7 +3420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -3163,7 +3431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -3174,7 +3442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -3185,7 +3453,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -3196,7 +3464,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3208,15 +3476,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>195</v>
       </c>
@@ -3254,8 +3526,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1401</v>
       </c>
       <c r="B2" t="s">
@@ -3270,30 +3542,30 @@
       <c r="E2" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>41</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>152.30000000000001</v>
       </c>
-      <c r="H2" s="0">
-        <v>48.759999999999998</v>
-      </c>
-      <c r="I2" s="0">
+      <c r="H2">
+        <v>48.76</v>
+      </c>
+      <c r="I2">
         <v>108</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>66</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>179</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>10.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1652</v>
       </c>
       <c r="B3" t="s">
@@ -3308,30 +3580,30 @@
       <c r="E3" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>160.30000000000001</v>
       </c>
-      <c r="H3" s="0">
-        <v>53.299999999999997</v>
-      </c>
-      <c r="I3" s="0">
+      <c r="H3">
+        <v>53.3</v>
+      </c>
+      <c r="I3">
         <v>98</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>60</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>113</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>13.9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1735</v>
       </c>
       <c r="B4" t="s">
@@ -3346,30 +3618,30 @@
       <c r="E4" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>53</v>
       </c>
-      <c r="G4" s="0">
-        <v>177.69999999999999</v>
-      </c>
-      <c r="H4" s="0">
-        <v>96.620000000000005</v>
-      </c>
-      <c r="I4" s="0">
+      <c r="G4">
+        <v>177.7</v>
+      </c>
+      <c r="H4">
+        <v>96.62</v>
+      </c>
+      <c r="I4">
         <v>106</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>56</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4">
         <v>184</v>
       </c>
-      <c r="L4" s="0">
-        <v>10.300000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="L4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2675</v>
       </c>
       <c r="B5" t="s">
@@ -3384,30 +3656,30 @@
       <c r="E5" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>69</v>
       </c>
-      <c r="G5" s="0">
-        <v>169.19999999999999</v>
-      </c>
-      <c r="H5" s="0">
-        <v>58.509999999999998</v>
-      </c>
-      <c r="I5" s="0">
+      <c r="G5">
+        <v>169.2</v>
+      </c>
+      <c r="H5">
+        <v>58.51</v>
+      </c>
+      <c r="I5">
         <v>140</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>55</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>235</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5">
         <v>11.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>12419</v>
       </c>
       <c r="B6" t="s">
@@ -3422,30 +3694,30 @@
       <c r="E6" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>69</v>
       </c>
-      <c r="G6" s="0">
-        <v>172.19999999999999</v>
-      </c>
-      <c r="H6" s="0">
-        <v>62.030000000000001</v>
-      </c>
-      <c r="I6" s="0">
+      <c r="G6">
+        <v>172.2</v>
+      </c>
+      <c r="H6">
+        <v>62.03</v>
+      </c>
+      <c r="I6">
         <v>150</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>88</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>198</v>
       </c>
-      <c r="L6" s="0">
-        <v>11.300000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="L6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>12664</v>
       </c>
       <c r="B7" t="s">
@@ -3460,30 +3732,30 @@
       <c r="E7" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>39</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>168</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>56.93</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>80</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>231</v>
       </c>
-      <c r="L7" s="0">
+      <c r="L7">
         <v>10.1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>13666</v>
       </c>
       <c r="B8" t="s">
@@ -3498,30 +3770,30 @@
       <c r="E8" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>68</v>
       </c>
-      <c r="G8" s="0">
-        <v>164.09999999999999</v>
-      </c>
-      <c r="H8" s="0">
-        <v>73.370000000000005</v>
-      </c>
-      <c r="I8" s="0">
+      <c r="G8">
+        <v>164.1</v>
+      </c>
+      <c r="H8">
+        <v>73.37</v>
+      </c>
+      <c r="I8">
         <v>130</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>80</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>218</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>15407</v>
       </c>
       <c r="B9" t="s">
@@ -3536,30 +3808,30 @@
       <c r="E9" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>21</v>
       </c>
-      <c r="G9" s="0">
-        <v>169.80000000000001</v>
-      </c>
-      <c r="H9" s="0">
-        <v>50.350000000000001</v>
-      </c>
-      <c r="I9" s="0">
+      <c r="G9">
+        <v>169.8</v>
+      </c>
+      <c r="H9">
+        <v>50.35</v>
+      </c>
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>64</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>161</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>11.9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>15523</v>
       </c>
       <c r="B10" t="s">
@@ -3574,30 +3846,30 @@
       <c r="E10" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>66</v>
       </c>
-      <c r="G10" s="0">
-        <v>169.09999999999999</v>
-      </c>
-      <c r="H10" s="0">
-        <v>58.170000000000002</v>
-      </c>
-      <c r="I10" s="0">
+      <c r="G10">
+        <v>169.1</v>
+      </c>
+      <c r="H10">
+        <v>58.17</v>
+      </c>
+      <c r="I10">
         <v>140</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>76</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>190</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>19706</v>
       </c>
       <c r="B11" t="s">
@@ -3612,30 +3884,30 @@
       <c r="E11" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>55</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>161.80000000000001</v>
       </c>
-      <c r="H11" s="0">
-        <v>64.519999999999996</v>
-      </c>
-      <c r="I11" s="0">
+      <c r="H11">
+        <v>64.52</v>
+      </c>
+      <c r="I11">
         <v>170</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>86</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>180</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>29472</v>
       </c>
       <c r="B12" t="s">
@@ -3650,30 +3922,30 @@
       <c r="E12" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>63</v>
       </c>
-      <c r="G12" s="0">
-        <v>174.30000000000001</v>
-      </c>
-      <c r="H12" s="0">
-        <v>60.670000000000002</v>
-      </c>
-      <c r="I12" s="0">
+      <c r="G12">
+        <v>174.3</v>
+      </c>
+      <c r="H12">
+        <v>60.67</v>
+      </c>
+      <c r="I12">
         <v>125</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>70</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>221</v>
       </c>
-      <c r="L12" s="0">
-        <v>14.199999999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+      <c r="L12">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>32639</v>
       </c>
       <c r="B13" t="s">
@@ -3688,30 +3960,30 @@
       <c r="E13" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>43</v>
       </c>
-      <c r="G13" s="0">
-        <v>181.80000000000001</v>
-      </c>
-      <c r="H13" s="0">
+      <c r="G13">
+        <v>181.8</v>
+      </c>
+      <c r="H13">
         <v>69.510000000000005</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>118</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>75</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>171</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>33682</v>
       </c>
       <c r="B14" t="s">
@@ -3726,30 +3998,30 @@
       <c r="E14" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>31</v>
       </c>
-      <c r="G14" s="0">
-        <v>164.09999999999999</v>
-      </c>
-      <c r="H14" s="0">
-        <v>66.230000000000004</v>
-      </c>
-      <c r="I14" s="0">
+      <c r="G14">
+        <v>164.1</v>
+      </c>
+      <c r="H14">
+        <v>66.23</v>
+      </c>
+      <c r="I14">
         <v>90</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14">
         <v>60</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <v>174</v>
       </c>
-      <c r="L14" s="0">
-        <v>11.199999999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+      <c r="L14">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>43664</v>
       </c>
       <c r="B15" t="s">
@@ -3764,30 +4036,30 @@
       <c r="E15" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>64</v>
       </c>
-      <c r="G15" s="0">
-        <v>166.40000000000001</v>
-      </c>
-      <c r="H15" s="0">
-        <v>65.890000000000001</v>
-      </c>
-      <c r="I15" s="0">
+      <c r="G15">
+        <v>166.4</v>
+      </c>
+      <c r="H15">
+        <v>65.89</v>
+      </c>
+      <c r="I15">
         <v>102</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J15">
         <v>75</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <v>195</v>
       </c>
-      <c r="L15" s="0">
+      <c r="L15">
         <v>14.6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>43739</v>
       </c>
       <c r="B16" t="s">
@@ -3802,30 +4074,30 @@
       <c r="E16" t="s">
         <v>205</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>33</v>
       </c>
-      <c r="G16" s="0">
-        <v>160.40000000000001</v>
-      </c>
-      <c r="H16" s="0">
+      <c r="G16">
+        <v>160.4</v>
+      </c>
+      <c r="H16">
         <v>66.790000000000006</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>125</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16">
         <v>80</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <v>182</v>
       </c>
-      <c r="L16" s="0">
+      <c r="L16">
         <v>12.4</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>44494</v>
       </c>
       <c r="B17" t="s">
@@ -3840,30 +4112,30 @@
       <c r="E17" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>24</v>
       </c>
-      <c r="G17" s="0">
-        <v>180.69999999999999</v>
-      </c>
-      <c r="H17" s="0">
-        <v>86.299999999999997</v>
-      </c>
-      <c r="I17" s="0">
+      <c r="G17">
+        <v>180.7</v>
+      </c>
+      <c r="H17">
+        <v>86.3</v>
+      </c>
+      <c r="I17">
         <v>140</v>
       </c>
-      <c r="J17" s="0">
+      <c r="J17">
         <v>84</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <v>208</v>
       </c>
-      <c r="L17" s="0">
-        <v>15.699999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="L17">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>46424</v>
       </c>
       <c r="B18" t="s">
@@ -3878,30 +4150,30 @@
       <c r="E18" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>44</v>
       </c>
-      <c r="G18" s="0">
-        <v>166.40000000000001</v>
-      </c>
-      <c r="H18" s="0">
-        <v>85.280000000000001</v>
-      </c>
-      <c r="I18" s="0">
+      <c r="G18">
+        <v>166.4</v>
+      </c>
+      <c r="H18">
+        <v>85.28</v>
+      </c>
+      <c r="I18">
         <v>150</v>
       </c>
-      <c r="J18" s="0">
+      <c r="J18">
         <v>94</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <v>216</v>
       </c>
-      <c r="L18" s="0">
+      <c r="L18">
         <v>11.4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>50679</v>
       </c>
       <c r="B19" t="s">
@@ -3916,30 +4188,30 @@
       <c r="E19" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>37</v>
       </c>
-      <c r="G19" s="0">
-        <v>163.59999999999999</v>
-      </c>
-      <c r="H19" s="0">
-        <v>49.329999999999998</v>
-      </c>
-      <c r="I19" s="0">
+      <c r="G19">
+        <v>163.6</v>
+      </c>
+      <c r="H19">
+        <v>49.33</v>
+      </c>
+      <c r="I19">
         <v>126</v>
       </c>
-      <c r="J19" s="0">
+      <c r="J19">
         <v>86</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <v>179</v>
       </c>
-      <c r="L19" s="0">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+      <c r="L19">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>56658</v>
       </c>
       <c r="B20" t="s">
@@ -3954,30 +4226,30 @@
       <c r="E20" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>42</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>160.19999999999999</v>
       </c>
-      <c r="H20" s="0">
-        <v>50.350000000000001</v>
-      </c>
-      <c r="I20" s="0">
+      <c r="H20">
+        <v>50.35</v>
+      </c>
+      <c r="I20">
         <v>110</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J20">
         <v>70</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <v>166</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20">
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>58693</v>
       </c>
       <c r="B21" t="s">
@@ -3992,38 +4264,42 @@
       <c r="E21" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>35</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>157</v>
       </c>
-      <c r="H21" s="0">
-        <v>81.310000000000002</v>
-      </c>
-      <c r="I21" s="0">
+      <c r="H21">
+        <v>81.31</v>
+      </c>
+      <c r="I21">
         <v>140</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J21">
         <v>90</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <v>230</v>
       </c>
-      <c r="L21" s="0">
+      <c r="L21">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -4034,7 +4310,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44253</v>
       </c>
@@ -4045,7 +4321,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44205</v>
       </c>
@@ -4056,7 +4332,7 @@
         <v>44605</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44263</v>
       </c>
@@ -4067,7 +4343,7 @@
         <v>44663</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44230</v>
       </c>
@@ -4078,7 +4354,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44299</v>
       </c>
@@ -4089,7 +4365,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44220</v>
       </c>
@@ -4100,7 +4376,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44198</v>
       </c>
@@ -4111,7 +4387,7 @@
         <v>44598</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44366</v>
       </c>
@@ -4122,7 +4398,7 @@
         <v>44766</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44196</v>
       </c>
@@ -4133,7 +4409,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44234</v>
       </c>
@@ -4144,7 +4420,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44304</v>
       </c>
@@ -4155,7 +4431,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44208</v>
       </c>
@@ -4166,7 +4442,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44328</v>
       </c>
@@ -4177,7 +4453,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44228</v>
       </c>
@@ -4188,7 +4464,7 @@
         <v>44628</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44203</v>
       </c>
@@ -4199,7 +4475,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44302</v>
       </c>
@@ -4210,7 +4486,7 @@
         <v>44702</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44268</v>
       </c>
@@ -4221,7 +4497,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44289</v>
       </c>
@@ -4232,7 +4508,7 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44310</v>
       </c>
@@ -4243,7 +4519,7 @@
         <v>44710</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44279</v>
       </c>
@@ -4255,15 +4531,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -4271,7 +4551,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -4279,7 +4559,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -4287,7 +4567,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -4295,7 +4575,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4303,7 +4583,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4311,7 +4591,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -4319,7 +4599,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -4327,7 +4607,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -4335,7 +4615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -4343,7 +4623,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -4351,7 +4631,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -4359,7 +4639,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -4367,7 +4647,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>230</v>
       </c>
@@ -4375,7 +4655,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -4383,7 +4663,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -4391,7 +4671,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -4399,7 +4679,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -4407,7 +4687,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>234</v>
       </c>
@@ -4415,7 +4695,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>235</v>
       </c>
@@ -4423,7 +4703,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>236</v>
       </c>
@@ -4431,7 +4711,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>237</v>
       </c>
@@ -4439,7 +4719,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -4447,7 +4727,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -4455,7 +4735,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -4463,7 +4743,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>241</v>
       </c>
@@ -4472,15 +4752,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -4491,104 +4775,108 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>239</v>
       </c>
       <c r="B2" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>1060</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>284</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>262</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>225</v>
       </c>
       <c r="B5" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>223</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>217</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
       <c r="B7" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>201</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>230</v>
       </c>
       <c r="B8" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>169</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>271</v>
       </c>
       <c r="B9" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>164</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -4599,93 +4887,99 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>239</v>
       </c>
       <c r="B2" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>831</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>319</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>199</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>229</v>
       </c>
       <c r="B5" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>188</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>226</v>
       </c>
       <c r="B6" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>207</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>283</v>
       </c>
       <c r="B7" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>154</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>173</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -4696,105 +4990,106 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>239</v>
       </c>
       <c r="B2" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>738</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>296</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>314</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>173</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>277</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>229</v>
       </c>
       <c r="B7" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>213</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="0">
+        <v>285</v>
+      </c>
+      <c r="C8">
         <v>176</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>178</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>271</v>
       </c>
       <c r="B10" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>210</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -852,7 +852,7 @@
     <t>Germany (GER)</t>
   </si>
   <si>
-    <t>Hungary(HUN)</t>
+    <t>Hungary (HUN)</t>
   </si>
   <si>
     <t>Japan (JPN)</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="299">
   <si>
     <t>Employment ID</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>bronze</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>Great Britain</t>
@@ -2830,7 +2833,7 @@
         <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
         <v>281</v>
@@ -2841,7 +2844,7 @@
         <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" s="0">
         <v>738</v>
@@ -2849,10 +2852,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C3" s="0">
         <v>296</v>
@@ -2860,10 +2863,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C4" s="0">
         <v>314</v>
@@ -2871,10 +2874,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C5" s="0">
         <v>173</v>
@@ -2885,7 +2888,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C6" s="0">
         <v>277</v>
@@ -2896,7 +2899,7 @@
         <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C7" s="0">
         <v>213</v>
@@ -2904,10 +2907,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C8" s="0">
         <v>176</v>
@@ -2918,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C9" s="0">
         <v>178</v>
@@ -2926,10 +2929,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C10" s="0">
         <v>210</v>
@@ -4627,7 +4630,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4643,6 +4646,9 @@
       <c r="D1" t="s">
         <v>281</v>
       </c>
+      <c r="E1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -4657,6 +4663,9 @@
       <c r="D2" s="0">
         <v>738</v>
       </c>
+      <c r="E2" s="0">
+        <v>2629</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4671,6 +4680,9 @@
       <c r="D3" s="0">
         <v>296</v>
       </c>
+      <c r="E3" s="0">
+        <v>1010</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4685,6 +4697,9 @@
       <c r="D4" s="0">
         <v>314</v>
       </c>
+      <c r="E4" s="0">
+        <v>916</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4699,6 +4714,9 @@
       <c r="D5" s="0">
         <v>173</v>
       </c>
+      <c r="E5" s="0">
+        <v>634</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4713,6 +4731,9 @@
       <c r="D6" s="0">
         <v>277</v>
       </c>
+      <c r="E6" s="0">
+        <v>751</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4727,6 +4748,9 @@
       <c r="D7" s="0">
         <v>213</v>
       </c>
+      <c r="E7" s="0">
+        <v>618</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4741,6 +4765,9 @@
       <c r="D8" s="0">
         <v>247</v>
       </c>
+      <c r="E8" s="0">
+        <v>655</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4755,6 +4782,9 @@
       <c r="D9" s="0">
         <v>176</v>
       </c>
+      <c r="E9" s="0">
+        <v>511</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4769,6 +4799,9 @@
       <c r="D10" s="0">
         <v>178</v>
       </c>
+      <c r="E10" s="0">
+        <v>497</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4782,6 +4815,9 @@
       </c>
       <c r="D11" s="0">
         <v>210</v>
+      </c>
+      <c r="E11" s="0">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4798,7 +4834,7 @@
         <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
         <v>279</v>
@@ -4809,7 +4845,7 @@
         <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" s="0">
         <v>1060</v>
@@ -4817,10 +4853,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C3" s="0">
         <v>284</v>
@@ -4828,10 +4864,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C4" s="0">
         <v>262</v>
@@ -4842,7 +4878,7 @@
         <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C5" s="0">
         <v>223</v>
@@ -4853,7 +4889,7 @@
         <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C6" s="0">
         <v>217</v>
@@ -4864,7 +4900,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C7" s="0">
         <v>201</v>
@@ -4875,7 +4911,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C8" s="0">
         <v>169</v>
@@ -4883,10 +4919,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C9" s="0">
         <v>164</v>
@@ -4906,7 +4942,7 @@
         <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
         <v>280</v>
@@ -4917,7 +4953,7 @@
         <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" s="0">
         <v>831</v>
@@ -4925,10 +4961,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C3" s="0">
         <v>319</v>
@@ -4936,10 +4972,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C4" s="0">
         <v>199</v>
@@ -4950,7 +4986,7 @@
         <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C5" s="0">
         <v>188</v>
@@ -4961,7 +4997,7 @@
         <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C6" s="0">
         <v>207</v>
@@ -4969,10 +5005,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C7" s="0">
         <v>154</v>
@@ -4980,10 +5016,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C8" s="0">
         <v>173</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="300">
   <si>
     <t>Employment ID</t>
   </si>
@@ -342,7 +342,7 @@
     <t>KES 266232</t>
   </si>
   <si>
-    <t>KES 316032</t>
+    <t>Ksh. 346296</t>
   </si>
   <si>
     <t>KES 348396</t>
@@ -351,10 +351,10 @@
     <t>KES 272064</t>
   </si>
   <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>KES 575424</t>
+    <t>sh. 266232</t>
+  </si>
+  <si>
+    <t>Ksh 290112</t>
   </si>
   <si>
     <t>-</t>
@@ -363,6 +363,9 @@
     <t>KES 287412</t>
   </si>
   <si>
+    <t>445668 shillings</t>
+  </si>
+  <si>
     <t>KES 354108</t>
   </si>
   <si>
@@ -378,7 +381,7 @@
     <t>KES 255948</t>
   </si>
   <si>
-    <t>KES 370140</t>
+    <t>527736/=</t>
   </si>
   <si>
     <t>KES 383040</t>
@@ -999,40 +1002,40 @@
         <v>102</v>
       </c>
       <c r="K1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -1067,10 +1070,10 @@
         <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M2" t="s">
         <v>77</v>
@@ -1082,10 +1085,10 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R2" s="0"/>
       <c r="S2" s="0">
@@ -1095,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V2" s="0"/>
     </row>
@@ -1131,25 +1134,25 @@
         <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
         <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" t="s">
         <v>127</v>
       </c>
-      <c r="O3" t="s">
-        <v>126</v>
-      </c>
       <c r="P3" t="s">
         <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R3" s="0">
         <v>22</v>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="T3" s="0"/>
       <c r="U3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V3" s="0">
         <v>1</v>
@@ -1197,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1257,13 +1260,13 @@
         <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
         <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N5" t="s">
         <v>76</v>
@@ -1275,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R5" s="0"/>
       <c r="S5" s="0">
@@ -1285,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V5" s="0"/>
     </row>
@@ -1321,7 +1324,7 @@
         <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
         <v>101</v>
@@ -1336,10 +1339,10 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R6" s="0">
         <v>2</v>
@@ -1351,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="U6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V6" s="0">
         <v>4</v>
@@ -1389,7 +1392,7 @@
         <v>107</v>
       </c>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
         <v>77</v>
@@ -1398,7 +1401,7 @@
         <v>77</v>
       </c>
       <c r="N7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O7" t="s">
         <v>77</v>
@@ -1407,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R7" s="0"/>
       <c r="S7" s="0">
@@ -1455,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -1515,7 +1518,7 @@
         <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
         <v>76</v>
@@ -1524,16 +1527,16 @@
         <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s">
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R9" s="0">
         <v>1</v>
@@ -1545,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V9" s="0">
         <v>2</v>
@@ -1583,7 +1586,7 @@
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
         <v>101</v>
@@ -1598,10 +1601,10 @@
         <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R10" s="0">
         <v>0</v>
@@ -1613,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="U10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V10" s="0">
         <v>2</v>
@@ -1651,7 +1654,7 @@
         <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
         <v>77</v>
@@ -1669,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R11" s="0">
         <v>0</v>
@@ -1681,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V11" s="0">
         <v>1</v>
@@ -1719,25 +1722,25 @@
         <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
         <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
         <v>127</v>
       </c>
-      <c r="O12" t="s">
-        <v>126</v>
-      </c>
       <c r="P12" t="s">
         <v>3</v>
       </c>
       <c r="Q12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R12" s="0">
         <v>22</v>
@@ -1747,7 +1750,7 @@
       </c>
       <c r="T12" s="0"/>
       <c r="U12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V12" s="0">
         <v>1</v>
@@ -1785,25 +1788,25 @@
         <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
         <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -1813,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V13" s="0">
         <v>0</v>
@@ -1851,7 +1854,7 @@
         <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
         <v>77</v>
@@ -1866,10 +1869,10 @@
         <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0">
@@ -1879,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="U14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V14" s="0">
         <v>1</v>
@@ -1914,28 +1917,28 @@
         <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s">
         <v>76</v>
       </c>
       <c r="M15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
         <v>76</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -1945,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
@@ -1983,7 +1986,7 @@
         <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
         <v>77</v>
@@ -1992,7 +1995,7 @@
         <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
         <v>77</v>
@@ -2001,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="Q16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0">
@@ -2046,10 +2049,10 @@
         <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s">
         <v>76</v>
@@ -2067,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="Q17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R17" s="0">
         <v>2</v>
@@ -2077,7 +2080,7 @@
       </c>
       <c r="T17" s="0"/>
       <c r="U17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V17" s="0">
         <v>0</v>
@@ -2112,10 +2115,10 @@
         <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s">
         <v>77</v>
@@ -2133,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R18" s="0">
         <v>3</v>
@@ -2180,13 +2183,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" t="s">
         <v>76</v>
@@ -2198,10 +2201,10 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -2213,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V19" s="0">
         <v>1</v>
@@ -2248,16 +2251,16 @@
         <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s">
         <v>76</v>
       </c>
       <c r="M20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s">
         <v>101</v>
@@ -2266,10 +2269,10 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -2281,7 +2284,7 @@
         <v>97</v>
       </c>
       <c r="U20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -2316,10 +2319,10 @@
         <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s">
         <v>76</v>
@@ -2328,7 +2331,7 @@
         <v>76</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
         <v>101</v>
@@ -2337,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R21" s="0">
         <v>3</v>
@@ -2349,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="U21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V21" s="0">
         <v>3</v>
@@ -2384,16 +2387,16 @@
         <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s">
         <v>76</v>
       </c>
       <c r="M22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N22" t="s">
         <v>77</v>
@@ -2405,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R22" s="0">
         <v>1</v>
@@ -2417,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="U22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V22" s="0">
         <v>2</v>
@@ -2452,13 +2455,13 @@
         <v>76</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M23" t="s">
         <v>101</v>
@@ -2473,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="Q23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R23" s="0">
         <v>64</v>
@@ -2485,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V23" s="0"/>
     </row>
@@ -2518,10 +2521,10 @@
         <v>76</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s">
         <v>101</v>
@@ -2539,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="Q24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -2551,7 +2554,7 @@
         <v>85</v>
       </c>
       <c r="U24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V24" s="0">
         <v>0</v>
@@ -2586,16 +2589,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s">
         <v>76</v>
       </c>
       <c r="M25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N25" t="s">
         <v>101</v>
@@ -2607,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R25" s="0">
         <v>0</v>
@@ -2617,7 +2620,7 @@
         <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V25" s="0">
         <v>0</v>
@@ -2652,16 +2655,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s">
         <v>76</v>
       </c>
       <c r="M26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N26" t="s">
         <v>101</v>
@@ -2670,10 +2673,10 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
@@ -2685,7 +2688,7 @@
         <v>97</v>
       </c>
       <c r="U26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -2720,10 +2723,10 @@
         <v>101</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s">
         <v>101</v>
@@ -2732,16 +2735,16 @@
         <v>77</v>
       </c>
       <c r="N27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O27" t="s">
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -2753,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V27" s="0">
         <v>2</v>
@@ -2791,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s">
         <v>3</v>
@@ -2830,21 +2833,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C2" s="0">
         <v>738</v>
@@ -2852,10 +2855,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C3" s="0">
         <v>296</v>
@@ -2863,10 +2866,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C4" s="0">
         <v>314</v>
@@ -2874,10 +2877,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C5" s="0">
         <v>173</v>
@@ -2885,10 +2888,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C6" s="0">
         <v>277</v>
@@ -2896,10 +2899,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C7" s="0">
         <v>213</v>
@@ -2907,10 +2910,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C8" s="0">
         <v>176</v>
@@ -2918,10 +2921,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C9" s="0">
         <v>178</v>
@@ -2929,10 +2932,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C10" s="0">
         <v>210</v>
@@ -2949,10 +2952,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
@@ -2960,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
@@ -2968,7 +2971,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
@@ -2976,7 +2979,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
@@ -2984,7 +2987,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
@@ -2992,7 +2995,7 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -3000,7 +3003,7 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -3008,7 +3011,7 @@
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -3016,7 +3019,7 @@
         <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
@@ -3024,7 +3027,7 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -3032,103 +3035,103 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3142,32 +3145,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -3175,7 +3178,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -3186,7 +3189,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -3197,7 +3200,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -3208,7 +3211,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -3219,7 +3222,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -3230,7 +3233,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -3241,10 +3244,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
@@ -3252,7 +3255,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -3263,7 +3266,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -3274,7 +3277,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -3285,7 +3288,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -3296,10 +3299,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -3307,10 +3310,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -3318,46 +3321,46 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3371,40 +3374,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
@@ -3412,16 +3415,16 @@
         <v>1401</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F2" s="0">
         <v>41</v>
@@ -3450,16 +3453,16 @@
         <v>1652</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" s="0">
         <v>25</v>
@@ -3488,16 +3491,16 @@
         <v>1735</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F4" s="0">
         <v>53</v>
@@ -3526,16 +3529,16 @@
         <v>2675</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" s="0">
         <v>69</v>
@@ -3564,16 +3567,16 @@
         <v>12419</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F6" s="0">
         <v>69</v>
@@ -3602,16 +3605,16 @@
         <v>12664</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F7" s="0">
         <v>39</v>
@@ -3640,16 +3643,16 @@
         <v>13666</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F8" s="0">
         <v>68</v>
@@ -3678,16 +3681,16 @@
         <v>15407</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F9" s="0">
         <v>21</v>
@@ -3716,16 +3719,16 @@
         <v>15523</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F10" s="0">
         <v>66</v>
@@ -3754,16 +3757,16 @@
         <v>19706</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="0">
         <v>55</v>
@@ -3792,16 +3795,16 @@
         <v>29472</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F12" s="0">
         <v>63</v>
@@ -3830,16 +3833,16 @@
         <v>32639</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F13" s="0">
         <v>43</v>
@@ -3868,16 +3871,16 @@
         <v>33682</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F14" s="0">
         <v>31</v>
@@ -3906,16 +3909,16 @@
         <v>43664</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F15" s="0">
         <v>64</v>
@@ -3944,16 +3947,16 @@
         <v>43739</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F16" s="0">
         <v>33</v>
@@ -3982,16 +3985,16 @@
         <v>44494</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F17" s="0">
         <v>24</v>
@@ -4020,16 +4023,16 @@
         <v>46424</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F18" s="0">
         <v>44</v>
@@ -4058,16 +4061,16 @@
         <v>50679</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F19" s="0">
         <v>37</v>
@@ -4096,16 +4099,16 @@
         <v>56658</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F20" s="0">
         <v>42</v>
@@ -4134,16 +4137,16 @@
         <v>58693</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F21" s="0">
         <v>35</v>
@@ -4178,13 +4181,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -4418,210 +4421,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4635,24 +4638,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B2" s="0">
         <v>1060</v>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B3" s="0">
         <v>395</v>
@@ -4686,7 +4689,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B4" s="0">
         <v>284</v>
@@ -4703,7 +4706,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B5" s="0">
         <v>262</v>
@@ -4720,7 +4723,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B6" s="0">
         <v>223</v>
@@ -4737,7 +4740,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B7" s="0">
         <v>217</v>
@@ -4754,7 +4757,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B8" s="0">
         <v>201</v>
@@ -4771,7 +4774,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B9" s="0">
         <v>181</v>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B10" s="0">
         <v>169</v>
@@ -4805,7 +4808,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B11" s="0">
         <v>164</v>
@@ -4831,21 +4834,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C2" s="0">
         <v>1060</v>
@@ -4853,10 +4856,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C3" s="0">
         <v>284</v>
@@ -4864,10 +4867,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" s="0">
         <v>262</v>
@@ -4875,10 +4878,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C5" s="0">
         <v>223</v>
@@ -4886,10 +4889,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C6" s="0">
         <v>217</v>
@@ -4897,10 +4900,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C7" s="0">
         <v>201</v>
@@ -4908,10 +4911,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C8" s="0">
         <v>169</v>
@@ -4919,10 +4922,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C9" s="0">
         <v>164</v>
@@ -4939,21 +4942,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C2" s="0">
         <v>831</v>
@@ -4961,10 +4964,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C3" s="0">
         <v>319</v>
@@ -4972,10 +4975,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" s="0">
         <v>199</v>
@@ -4983,10 +4986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C5" s="0">
         <v>188</v>
@@ -4994,10 +4997,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C6" s="0">
         <v>207</v>
@@ -5005,10 +5008,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C7" s="0">
         <v>154</v>
@@ -5016,10 +5019,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C8" s="0">
         <v>173</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEMResearch\OneDrive\stem\training\cemre\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="staff" sheetId="1" r:id="rId2"/>
-    <sheet name="variables" sheetId="2" r:id="rId4"/>
-    <sheet name="clean_values" sheetId="3" r:id="rId5"/>
-    <sheet name="health" sheetId="4" r:id="rId6"/>
-    <sheet name="dates" sheetId="5" r:id="rId7"/>
-    <sheet name="countries" sheetId="6" r:id="rId8"/>
-    <sheet name="medals" sheetId="7" r:id="rId9"/>
-    <sheet name="gold" sheetId="8" r:id="rId10"/>
-    <sheet name="silver" sheetId="9" r:id="rId11"/>
-    <sheet name="bronze" sheetId="10" r:id="rId12"/>
+    <sheet name="staff" sheetId="1" r:id="rId1"/>
+    <sheet name="variables" sheetId="2" r:id="rId2"/>
+    <sheet name="clean_values" sheetId="3" r:id="rId3"/>
+    <sheet name="health" sheetId="4" r:id="rId4"/>
+    <sheet name="dates" sheetId="5" r:id="rId5"/>
+    <sheet name="countries" sheetId="6" r:id="rId6"/>
+    <sheet name="medals" sheetId="7" r:id="rId7"/>
+    <sheet name="gold" sheetId="8" r:id="rId8"/>
+    <sheet name="silver" sheetId="9" r:id="rId9"/>
+    <sheet name="bronze" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="298">
   <si>
     <t>Employment ID</t>
   </si>
@@ -576,9 +582,6 @@
     <t>variable</t>
   </si>
   <si>
-    <t>multiple</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -598,9 +601,6 @@
   </si>
   <si>
     <t>Microsoft Azure</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>correct_value</t>
@@ -927,8 +927,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -950,27 +950,307 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1090,19 +1370,17 @@
       <c r="Q2" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2" s="0">
+      <c r="T2">
         <v>2</v>
       </c>
       <c r="U2" t="s">
         <v>153</v>
       </c>
-      <c r="V2" s="0"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1154,21 +1432,20 @@
       <c r="Q3" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="0">
+      <c r="R3">
         <v>22</v>
       </c>
-      <c r="S3" s="0">
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3" s="0"/>
       <c r="U3" t="s">
         <v>154</v>
       </c>
-      <c r="V3" s="0">
+      <c r="V3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1220,15 +1497,11 @@
       <c r="Q4" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
       <c r="U4" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="0"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1280,19 +1553,17 @@
       <c r="Q5" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0">
+      <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5" s="0">
+      <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
         <v>155</v>
       </c>
-      <c r="V5" s="0"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1344,23 +1615,23 @@
       <c r="Q6" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="0">
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="S6" s="0">
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="T6" s="0">
+      <c r="T6">
         <v>6</v>
       </c>
       <c r="U6" t="s">
         <v>153</v>
       </c>
-      <c r="V6" s="0">
+      <c r="V6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1412,21 +1683,20 @@
       <c r="Q7" t="s">
         <v>141</v>
       </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0">
+      <c r="S7">
         <v>4</v>
       </c>
-      <c r="T7" s="0">
+      <c r="T7">
         <v>3</v>
       </c>
       <c r="U7" t="s">
         <v>99</v>
       </c>
-      <c r="V7" s="0">
+      <c r="V7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1478,15 +1748,11 @@
       <c r="Q8" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
       <c r="U8" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="0"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1538,23 +1804,23 @@
       <c r="Q9" t="s">
         <v>142</v>
       </c>
-      <c r="R9" s="0">
+      <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" s="0">
+      <c r="S9">
         <v>1</v>
       </c>
-      <c r="T9" s="0">
+      <c r="T9">
         <v>1</v>
       </c>
       <c r="U9" t="s">
         <v>154</v>
       </c>
-      <c r="V9" s="0">
+      <c r="V9">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1606,23 +1872,23 @@
       <c r="Q10" t="s">
         <v>143</v>
       </c>
-      <c r="R10" s="0">
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="0">
+      <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10" s="0">
+      <c r="T10">
         <v>4</v>
       </c>
       <c r="U10" t="s">
         <v>156</v>
       </c>
-      <c r="V10" s="0">
+      <c r="V10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1674,23 +1940,23 @@
       <c r="Q11" t="s">
         <v>144</v>
       </c>
-      <c r="R11" s="0">
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="0">
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="T11" s="0">
+      <c r="T11">
         <v>4</v>
       </c>
       <c r="U11" t="s">
         <v>155</v>
       </c>
-      <c r="V11" s="0">
+      <c r="V11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1742,21 +2008,20 @@
       <c r="Q12" t="s">
         <v>139</v>
       </c>
-      <c r="R12" s="0">
+      <c r="R12">
         <v>22</v>
       </c>
-      <c r="S12" s="0">
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12" s="0"/>
       <c r="U12" t="s">
         <v>154</v>
       </c>
-      <c r="V12" s="0">
+      <c r="V12">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1808,21 +2073,20 @@
       <c r="Q13" t="s">
         <v>145</v>
       </c>
-      <c r="R13" s="0">
+      <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0">
+      <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
         <v>156</v>
       </c>
-      <c r="V13" s="0">
+      <c r="V13">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1874,21 +2138,20 @@
       <c r="Q14" t="s">
         <v>146</v>
       </c>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0">
+      <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" s="0">
+      <c r="T14">
         <v>5</v>
       </c>
       <c r="U14" t="s">
         <v>153</v>
       </c>
-      <c r="V14" s="0">
+      <c r="V14">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1940,21 +2203,20 @@
       <c r="Q15" t="s">
         <v>145</v>
       </c>
-      <c r="R15" s="0">
+      <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0">
+      <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
         <v>156</v>
       </c>
-      <c r="V15" s="0">
+      <c r="V15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2006,21 +2268,20 @@
       <c r="Q16" t="s">
         <v>141</v>
       </c>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0">
+      <c r="S16">
         <v>4</v>
       </c>
-      <c r="T16" s="0">
+      <c r="T16">
         <v>3</v>
       </c>
       <c r="U16" t="s">
         <v>99</v>
       </c>
-      <c r="V16" s="0">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2072,21 +2333,20 @@
       <c r="Q17" t="s">
         <v>141</v>
       </c>
-      <c r="R17" s="0">
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="S17" s="0">
+      <c r="S17">
         <v>4</v>
       </c>
-      <c r="T17" s="0"/>
       <c r="U17" t="s">
         <v>155</v>
       </c>
-      <c r="V17" s="0">
+      <c r="V17">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2138,23 +2398,23 @@
       <c r="Q18" t="s">
         <v>141</v>
       </c>
-      <c r="R18" s="0">
-        <v>3</v>
-      </c>
-      <c r="S18" s="0">
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" s="0">
+      <c r="T18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
         <v>99</v>
       </c>
-      <c r="V18" s="0">
+      <c r="V18">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2206,23 +2466,23 @@
       <c r="Q19" t="s">
         <v>147</v>
       </c>
-      <c r="R19" s="0">
+      <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19" s="0">
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" s="0">
+      <c r="T19">
         <v>3</v>
       </c>
       <c r="U19" t="s">
         <v>155</v>
       </c>
-      <c r="V19" s="0">
+      <c r="V19">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2274,23 +2534,23 @@
       <c r="Q20" t="s">
         <v>147</v>
       </c>
-      <c r="R20" s="0">
+      <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20" s="0">
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="T20" s="0">
+      <c r="T20">
         <v>97</v>
       </c>
       <c r="U20" t="s">
         <v>156</v>
       </c>
-      <c r="V20" s="0">
+      <c r="V20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2342,23 +2602,23 @@
       <c r="Q21" t="s">
         <v>146</v>
       </c>
-      <c r="R21" s="0">
-        <v>3</v>
-      </c>
-      <c r="S21" s="0">
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
         <v>4</v>
       </c>
-      <c r="T21" s="0">
+      <c r="T21">
         <v>6</v>
       </c>
       <c r="U21" t="s">
         <v>153</v>
       </c>
-      <c r="V21" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="V21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2410,23 +2670,23 @@
       <c r="Q22" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="0">
+      <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22" s="0">
+      <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="0">
+      <c r="T22">
         <v>2</v>
       </c>
       <c r="U22" t="s">
         <v>154</v>
       </c>
-      <c r="V22" s="0">
+      <c r="V22">
         <v>2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2478,21 +2738,20 @@
       <c r="Q23" t="s">
         <v>147</v>
       </c>
-      <c r="R23" s="0">
+      <c r="R23">
         <v>64</v>
       </c>
-      <c r="S23" s="0">
+      <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23" s="0">
+      <c r="T23">
         <v>5</v>
       </c>
       <c r="U23" t="s">
         <v>153</v>
       </c>
-      <c r="V23" s="0"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2544,23 +2803,23 @@
       <c r="Q24" t="s">
         <v>148</v>
       </c>
-      <c r="R24" s="0">
+      <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24" s="0">
+      <c r="S24">
         <v>4</v>
       </c>
-      <c r="T24" s="0">
+      <c r="T24">
         <v>85</v>
       </c>
       <c r="U24" t="s">
         <v>155</v>
       </c>
-      <c r="V24" s="0">
+      <c r="V24">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2612,21 +2871,20 @@
       <c r="Q25" t="s">
         <v>139</v>
       </c>
-      <c r="R25" s="0">
+      <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0">
+      <c r="T25">
         <v>54</v>
       </c>
       <c r="U25" t="s">
         <v>155</v>
       </c>
-      <c r="V25" s="0">
+      <c r="V25">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2678,23 +2936,23 @@
       <c r="Q26" t="s">
         <v>147</v>
       </c>
-      <c r="R26" s="0">
+      <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" s="0">
+      <c r="S26">
         <v>2</v>
       </c>
-      <c r="T26" s="0">
+      <c r="T26">
         <v>97</v>
       </c>
       <c r="U26" t="s">
         <v>156</v>
       </c>
-      <c r="V26" s="0">
+      <c r="V26">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2746,23 +3004,23 @@
       <c r="Q27" t="s">
         <v>143</v>
       </c>
-      <c r="R27" s="0">
+      <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" s="0">
+      <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27" s="0">
+      <c r="T27">
         <v>0</v>
       </c>
       <c r="U27" t="s">
         <v>155</v>
       </c>
-      <c r="V27" s="0">
+      <c r="V27">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2814,143 +3072,147 @@
       <c r="Q28" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
       <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="0"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
         <v>287</v>
       </c>
-      <c r="C1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="0">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="0">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>284</v>
       </c>
-      <c r="B4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="0">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="0">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="0">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="0">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="0">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>210</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -2958,7 +3220,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +3228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2974,7 +3236,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2982,7 +3244,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2990,7 +3252,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2998,7 +3260,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -3006,7 +3268,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -3014,7 +3276,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -3022,7 +3284,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -3030,7 +3292,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -3038,7 +3300,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -3046,7 +3308,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3054,7 +3316,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -3062,7 +3324,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -3070,7 +3332,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>132</v>
       </c>
@@ -3078,7 +3340,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -3086,7 +3348,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -3094,7 +3356,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -3102,7 +3364,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -3110,7 +3372,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -3118,7 +3380,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -3126,7 +3388,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -3135,1062 +3397,1058 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>183</v>
       </c>
       <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
         <v>187</v>
       </c>
-      <c r="C1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>164</v>
-      </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>166</v>
-      </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>125</v>
       </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>125</v>
       </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>185</v>
-      </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>125</v>
       </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>186</v>
-      </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
         <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1401</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2">
         <v>41</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>152.30000000000001</v>
       </c>
-      <c r="H2" s="0">
-        <v>48.759999999999998</v>
-      </c>
-      <c r="I2" s="0">
+      <c r="H2">
+        <v>48.76</v>
+      </c>
+      <c r="I2">
         <v>108</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>66</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>179</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>10.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1652</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="0">
+        <v>205</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>160.30000000000001</v>
       </c>
-      <c r="H3" s="0">
-        <v>53.299999999999997</v>
-      </c>
-      <c r="I3" s="0">
+      <c r="H3">
+        <v>53.3</v>
+      </c>
+      <c r="I3">
         <v>98</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>60</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>113</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>13.9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1735</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="0">
+        <v>206</v>
+      </c>
+      <c r="F4">
         <v>53</v>
       </c>
-      <c r="G4" s="0">
-        <v>177.69999999999999</v>
-      </c>
-      <c r="H4" s="0">
-        <v>96.620000000000005</v>
-      </c>
-      <c r="I4" s="0">
+      <c r="G4">
+        <v>177.7</v>
+      </c>
+      <c r="H4">
+        <v>96.62</v>
+      </c>
+      <c r="I4">
         <v>106</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>56</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4">
         <v>184</v>
       </c>
-      <c r="L4" s="0">
-        <v>10.300000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="L4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2675</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="0">
+        <v>204</v>
+      </c>
+      <c r="F5">
         <v>69</v>
       </c>
-      <c r="G5" s="0">
-        <v>169.19999999999999</v>
-      </c>
-      <c r="H5" s="0">
-        <v>58.509999999999998</v>
-      </c>
-      <c r="I5" s="0">
+      <c r="G5">
+        <v>169.2</v>
+      </c>
+      <c r="H5">
+        <v>58.51</v>
+      </c>
+      <c r="I5">
         <v>140</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>55</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>235</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5">
         <v>11.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>12419</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="0">
+        <v>205</v>
+      </c>
+      <c r="F6">
         <v>69</v>
       </c>
-      <c r="G6" s="0">
-        <v>172.19999999999999</v>
-      </c>
-      <c r="H6" s="0">
-        <v>62.030000000000001</v>
-      </c>
-      <c r="I6" s="0">
+      <c r="G6">
+        <v>172.2</v>
+      </c>
+      <c r="H6">
+        <v>62.03</v>
+      </c>
+      <c r="I6">
         <v>150</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>88</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>198</v>
       </c>
-      <c r="L6" s="0">
-        <v>11.300000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="L6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>12664</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
         <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="0">
+        <v>204</v>
+      </c>
+      <c r="F7">
         <v>39</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>168</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>56.93</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>80</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>231</v>
       </c>
-      <c r="L7" s="0">
+      <c r="L7">
         <v>10.1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>13666</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>128</v>
       </c>
       <c r="D8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
         <v>204</v>
       </c>
-      <c r="E8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>68</v>
       </c>
-      <c r="G8" s="0">
-        <v>164.09999999999999</v>
-      </c>
-      <c r="H8" s="0">
-        <v>73.370000000000005</v>
-      </c>
-      <c r="I8" s="0">
+      <c r="G8">
+        <v>164.1</v>
+      </c>
+      <c r="H8">
+        <v>73.37</v>
+      </c>
+      <c r="I8">
         <v>130</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>80</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>218</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>15407</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
         <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="0">
+        <v>205</v>
+      </c>
+      <c r="F9">
         <v>21</v>
       </c>
-      <c r="G9" s="0">
-        <v>169.80000000000001</v>
-      </c>
-      <c r="H9" s="0">
-        <v>50.350000000000001</v>
-      </c>
-      <c r="I9" s="0">
+      <c r="G9">
+        <v>169.8</v>
+      </c>
+      <c r="H9">
+        <v>50.35</v>
+      </c>
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>64</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>161</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>11.9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>15523</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="0">
+        <v>204</v>
+      </c>
+      <c r="F10">
         <v>66</v>
       </c>
-      <c r="G10" s="0">
-        <v>169.09999999999999</v>
-      </c>
-      <c r="H10" s="0">
-        <v>58.170000000000002</v>
-      </c>
-      <c r="I10" s="0">
+      <c r="G10">
+        <v>169.1</v>
+      </c>
+      <c r="H10">
+        <v>58.17</v>
+      </c>
+      <c r="I10">
         <v>140</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>76</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>190</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>19706</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="0">
+        <v>204</v>
+      </c>
+      <c r="F11">
         <v>55</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>161.80000000000001</v>
       </c>
-      <c r="H11" s="0">
-        <v>64.519999999999996</v>
-      </c>
-      <c r="I11" s="0">
+      <c r="H11">
+        <v>64.52</v>
+      </c>
+      <c r="I11">
         <v>170</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>86</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>180</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>29472</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
       </c>
       <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
         <v>204</v>
       </c>
-      <c r="E12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>63</v>
       </c>
-      <c r="G12" s="0">
-        <v>174.30000000000001</v>
-      </c>
-      <c r="H12" s="0">
-        <v>60.670000000000002</v>
-      </c>
-      <c r="I12" s="0">
+      <c r="G12">
+        <v>174.3</v>
+      </c>
+      <c r="H12">
+        <v>60.67</v>
+      </c>
+      <c r="I12">
         <v>125</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>70</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>221</v>
       </c>
-      <c r="L12" s="0">
-        <v>14.199999999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+      <c r="L12">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>32639</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="0">
+        <v>206</v>
+      </c>
+      <c r="F13">
         <v>43</v>
       </c>
-      <c r="G13" s="0">
-        <v>181.80000000000001</v>
-      </c>
-      <c r="H13" s="0">
+      <c r="G13">
+        <v>181.8</v>
+      </c>
+      <c r="H13">
         <v>69.510000000000005</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>118</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>75</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>171</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>33682</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="0">
+        <v>204</v>
+      </c>
+      <c r="F14">
         <v>31</v>
       </c>
-      <c r="G14" s="0">
-        <v>164.09999999999999</v>
-      </c>
-      <c r="H14" s="0">
-        <v>66.230000000000004</v>
-      </c>
-      <c r="I14" s="0">
+      <c r="G14">
+        <v>164.1</v>
+      </c>
+      <c r="H14">
+        <v>66.23</v>
+      </c>
+      <c r="I14">
         <v>90</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14">
         <v>60</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <v>174</v>
       </c>
-      <c r="L14" s="0">
-        <v>11.199999999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+      <c r="L14">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>43664</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="0">
+        <v>205</v>
+      </c>
+      <c r="F15">
         <v>64</v>
       </c>
-      <c r="G15" s="0">
-        <v>166.40000000000001</v>
-      </c>
-      <c r="H15" s="0">
-        <v>65.890000000000001</v>
-      </c>
-      <c r="I15" s="0">
+      <c r="G15">
+        <v>166.4</v>
+      </c>
+      <c r="H15">
+        <v>65.89</v>
+      </c>
+      <c r="I15">
         <v>102</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J15">
         <v>75</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <v>195</v>
       </c>
-      <c r="L15" s="0">
+      <c r="L15">
         <v>14.6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>43739</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" s="0">
+        <v>204</v>
+      </c>
+      <c r="F16">
         <v>33</v>
       </c>
-      <c r="G16" s="0">
-        <v>160.40000000000001</v>
-      </c>
-      <c r="H16" s="0">
+      <c r="G16">
+        <v>160.4</v>
+      </c>
+      <c r="H16">
         <v>66.790000000000006</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>125</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16">
         <v>80</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <v>182</v>
       </c>
-      <c r="L16" s="0">
+      <c r="L16">
         <v>12.4</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>44494</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
       <c r="D17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" t="s">
         <v>204</v>
       </c>
-      <c r="E17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>24</v>
       </c>
-      <c r="G17" s="0">
-        <v>180.69999999999999</v>
-      </c>
-      <c r="H17" s="0">
-        <v>86.299999999999997</v>
-      </c>
-      <c r="I17" s="0">
+      <c r="G17">
+        <v>180.7</v>
+      </c>
+      <c r="H17">
+        <v>86.3</v>
+      </c>
+      <c r="I17">
         <v>140</v>
       </c>
-      <c r="J17" s="0">
+      <c r="J17">
         <v>84</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <v>208</v>
       </c>
-      <c r="L17" s="0">
-        <v>15.699999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="L17">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>46424</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="0">
+        <v>206</v>
+      </c>
+      <c r="F18">
         <v>44</v>
       </c>
-      <c r="G18" s="0">
-        <v>166.40000000000001</v>
-      </c>
-      <c r="H18" s="0">
-        <v>85.280000000000001</v>
-      </c>
-      <c r="I18" s="0">
+      <c r="G18">
+        <v>166.4</v>
+      </c>
+      <c r="H18">
+        <v>85.28</v>
+      </c>
+      <c r="I18">
         <v>150</v>
       </c>
-      <c r="J18" s="0">
+      <c r="J18">
         <v>94</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <v>216</v>
       </c>
-      <c r="L18" s="0">
+      <c r="L18">
         <v>11.4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>50679</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="0">
+        <v>204</v>
+      </c>
+      <c r="F19">
         <v>37</v>
       </c>
-      <c r="G19" s="0">
-        <v>163.59999999999999</v>
-      </c>
-      <c r="H19" s="0">
-        <v>49.329999999999998</v>
-      </c>
-      <c r="I19" s="0">
+      <c r="G19">
+        <v>163.6</v>
+      </c>
+      <c r="H19">
+        <v>49.33</v>
+      </c>
+      <c r="I19">
         <v>126</v>
       </c>
-      <c r="J19" s="0">
+      <c r="J19">
         <v>86</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <v>179</v>
       </c>
-      <c r="L19" s="0">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+      <c r="L19">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>56658</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="0">
+        <v>204</v>
+      </c>
+      <c r="F20">
         <v>42</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>160.19999999999999</v>
       </c>
-      <c r="H20" s="0">
-        <v>50.350000000000001</v>
-      </c>
-      <c r="I20" s="0">
+      <c r="H20">
+        <v>50.35</v>
+      </c>
+      <c r="I20">
         <v>110</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J20">
         <v>70</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <v>166</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20">
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>58693</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="0">
+        <v>206</v>
+      </c>
+      <c r="F21">
         <v>35</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>157</v>
       </c>
-      <c r="H21" s="0">
-        <v>81.310000000000002</v>
-      </c>
-      <c r="I21" s="0">
+      <c r="H21">
+        <v>81.31</v>
+      </c>
+      <c r="I21">
         <v>140</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J21">
         <v>90</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <v>230</v>
       </c>
-      <c r="L21" s="0">
+      <c r="L21">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
         <v>216</v>
       </c>
-      <c r="B1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44253</v>
       </c>
@@ -4201,7 +4459,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44205</v>
       </c>
@@ -4212,7 +4470,7 @@
         <v>44605</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44263</v>
       </c>
@@ -4223,7 +4481,7 @@
         <v>44663</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44230</v>
       </c>
@@ -4234,7 +4492,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44299</v>
       </c>
@@ -4245,7 +4503,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44220</v>
       </c>
@@ -4256,7 +4514,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44198</v>
       </c>
@@ -4267,7 +4525,7 @@
         <v>44598</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44366</v>
       </c>
@@ -4278,7 +4536,7 @@
         <v>44766</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44196</v>
       </c>
@@ -4289,7 +4547,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44234</v>
       </c>
@@ -4300,7 +4558,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44304</v>
       </c>
@@ -4311,7 +4569,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44208</v>
       </c>
@@ -4322,7 +4580,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44328</v>
       </c>
@@ -4333,7 +4591,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44228</v>
       </c>
@@ -4344,7 +4602,7 @@
         <v>44628</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44203</v>
       </c>
@@ -4355,7 +4613,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44302</v>
       </c>
@@ -4366,7 +4624,7 @@
         <v>44702</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44268</v>
       </c>
@@ -4377,7 +4635,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44289</v>
       </c>
@@ -4388,7 +4646,7 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44310</v>
       </c>
@@ -4399,7 +4657,7 @@
         <v>44710</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44279</v>
       </c>
@@ -4411,623 +4669,640 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>164</v>
       </c>
       <c r="B1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>219</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>220</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>221</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>223</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>224</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>225</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>226</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>227</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>228</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>229</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>230</v>
       </c>
-      <c r="B13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>231</v>
       </c>
-      <c r="B14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>232</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>233</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>234</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>235</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>236</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>237</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>238</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>239</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>240</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" t="s">
-        <v>268</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2">
+        <v>1060</v>
+      </c>
+      <c r="C2">
+        <v>831</v>
+      </c>
+      <c r="D2">
+        <v>738</v>
+      </c>
+      <c r="E2">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>269</v>
       </c>
-      <c r="B1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>395</v>
+      </c>
+      <c r="C3">
+        <v>319</v>
+      </c>
+      <c r="D3">
+        <v>296</v>
+      </c>
+      <c r="E3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="0">
-        <v>1060</v>
-      </c>
-      <c r="C2" s="0">
-        <v>831</v>
-      </c>
-      <c r="D2" s="0">
-        <v>738</v>
-      </c>
-      <c r="E2" s="0">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>284</v>
+      </c>
+      <c r="C4">
+        <v>318</v>
+      </c>
+      <c r="D4">
+        <v>314</v>
+      </c>
+      <c r="E4">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="0">
-        <v>395</v>
-      </c>
-      <c r="C3" s="0">
-        <v>319</v>
-      </c>
-      <c r="D3" s="0">
-        <v>296</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>262</v>
+      </c>
+      <c r="C5">
+        <v>199</v>
+      </c>
+      <c r="D5">
+        <v>173</v>
+      </c>
+      <c r="E5">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="0">
-        <v>284</v>
-      </c>
-      <c r="C4" s="0">
-        <v>318</v>
-      </c>
-      <c r="D4" s="0">
-        <v>314</v>
-      </c>
-      <c r="E4" s="0">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>223</v>
+      </c>
+      <c r="C6">
+        <v>251</v>
+      </c>
+      <c r="D6">
+        <v>277</v>
+      </c>
+      <c r="E6">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="0">
-        <v>262</v>
-      </c>
-      <c r="C5" s="0">
-        <v>199</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="B7">
+        <v>217</v>
+      </c>
+      <c r="C7">
+        <v>188</v>
+      </c>
+      <c r="D7">
+        <v>213</v>
+      </c>
+      <c r="E7">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8">
+        <v>201</v>
+      </c>
+      <c r="C8">
+        <v>207</v>
+      </c>
+      <c r="D8">
+        <v>247</v>
+      </c>
+      <c r="E8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9">
+        <v>181</v>
+      </c>
+      <c r="C9">
+        <v>154</v>
+      </c>
+      <c r="D9">
+        <v>176</v>
+      </c>
+      <c r="E9">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10">
+        <v>169</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>178</v>
+      </c>
+      <c r="E10">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11">
+        <v>164</v>
+      </c>
+      <c r="C11">
         <v>173</v>
       </c>
-      <c r="E5" s="0">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="0">
-        <v>223</v>
-      </c>
-      <c r="C6" s="0">
-        <v>251</v>
-      </c>
-      <c r="D6" s="0">
-        <v>277</v>
-      </c>
-      <c r="E6" s="0">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="0">
-        <v>217</v>
-      </c>
-      <c r="C7" s="0">
-        <v>188</v>
-      </c>
-      <c r="D7" s="0">
-        <v>213</v>
-      </c>
-      <c r="E7" s="0">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="0">
-        <v>201</v>
-      </c>
-      <c r="C8" s="0">
-        <v>207</v>
-      </c>
-      <c r="D8" s="0">
-        <v>247</v>
-      </c>
-      <c r="E8" s="0">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B9" s="0">
-        <v>181</v>
-      </c>
-      <c r="C9" s="0">
-        <v>154</v>
-      </c>
-      <c r="D9" s="0">
-        <v>176</v>
-      </c>
-      <c r="E9" s="0">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="0">
-        <v>169</v>
-      </c>
-      <c r="C10" s="0">
-        <v>150</v>
-      </c>
-      <c r="D10" s="0">
-        <v>178</v>
-      </c>
-      <c r="E10" s="0">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="0">
-        <v>164</v>
-      </c>
-      <c r="C11" s="0">
-        <v>173</v>
-      </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>210</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>547</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s">
         <v>287</v>
       </c>
-      <c r="C1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="0">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="C4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>284</v>
       </c>
-      <c r="B3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="0">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="0">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="0">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="0">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="0">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="0">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>164</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="0">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="0">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="0">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>188</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
         <v>293</v>
       </c>
-      <c r="C6" s="0">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="0">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>173</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="298">
   <si>
     <t>Employment ID</t>
   </si>
@@ -3403,10 +3403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3581,35 +3581,51 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>185</v>
-      </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>125</v>
-      </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>125</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
         <v>190</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>193</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="300">
   <si>
     <t>Employment ID</t>
   </si>
@@ -922,16 +922,27 @@
   </si>
   <si>
     <t>HUN</t>
+  </si>
+  <si>
+    <t>Digital Ocean</t>
+  </si>
+  <si>
+    <t>Oracle, AWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -961,9 +972,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3403,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,52 +3585,49 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>125</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>127</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,14 +3635,58 @@
         <v>125</v>
       </c>
       <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
         <v>190</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
